--- a/AAII_Financials/Quarterly/AMTY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMTY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>AMTY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,104 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E8" s="3">
         <v>1100</v>
       </c>
       <c r="F8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H8" s="3">
         <v>900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>800</v>
-      </c>
-      <c r="I8" s="3">
-        <v>900</v>
-      </c>
-      <c r="J8" s="3">
-        <v>900</v>
       </c>
       <c r="K8" s="3">
         <v>900</v>
@@ -764,33 +771,39 @@
         <v>900</v>
       </c>
       <c r="M8" s="3">
+        <v>900</v>
+      </c>
+      <c r="N8" s="3">
+        <v>900</v>
+      </c>
+      <c r="O8" s="3">
         <v>800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>800</v>
+      </c>
+      <c r="F9" s="3">
         <v>700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>700</v>
-      </c>
-      <c r="F9" s="3">
-        <v>600</v>
-      </c>
-      <c r="G9" s="3">
-        <v>600</v>
       </c>
       <c r="H9" s="3">
         <v>600</v>
@@ -799,7 +812,7 @@
         <v>600</v>
       </c>
       <c r="J9" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K9" s="3">
         <v>600</v>
@@ -817,10 +830,16 @@
         <v>600</v>
       </c>
       <c r="P9" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q9" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,19 +847,19 @@
         <v>300</v>
       </c>
       <c r="E10" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F10" s="3">
         <v>300</v>
       </c>
       <c r="G10" s="3">
+        <v>400</v>
+      </c>
+      <c r="H10" s="3">
+        <v>300</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
-      </c>
-      <c r="H10" s="3">
-        <v>200</v>
-      </c>
-      <c r="I10" s="3">
-        <v>300</v>
       </c>
       <c r="J10" s="3">
         <v>200</v>
@@ -852,19 +871,25 @@
         <v>200</v>
       </c>
       <c r="M10" s="3">
+        <v>300</v>
+      </c>
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
+        <v>200</v>
+      </c>
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
@@ -925,8 +952,14 @@
       <c r="P12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>100</v>
+      </c>
+      <c r="R12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1004,17 +1043,23 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1123,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1084,25 +1137,25 @@
         <v>1000</v>
       </c>
       <c r="F17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="3">
         <v>900</v>
-      </c>
-      <c r="G17" s="3">
-        <v>900</v>
-      </c>
-      <c r="H17" s="3">
-        <v>800</v>
       </c>
       <c r="I17" s="3">
         <v>900</v>
       </c>
       <c r="J17" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K17" s="3">
         <v>900</v>
       </c>
       <c r="L17" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M17" s="3">
         <v>900</v>
@@ -1114,15 +1167,21 @@
         <v>900</v>
       </c>
       <c r="P17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
         <v>100</v>
@@ -1131,14 +1190,14 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
@@ -1146,22 +1205,28 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,13 +1289,19 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E21" s="3">
         <v>100</v>
@@ -1237,37 +1310,43 @@
         <v>100</v>
       </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,29 +1389,35 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
@@ -1340,22 +1425,28 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,29 +1539,35 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -1472,27 +1575,33 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1501,14 +1610,14 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
@@ -1516,22 +1625,28 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,13 +1889,19 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1765,14 +1910,14 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
@@ -1780,22 +1925,28 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,13 +1989,19 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -1853,14 +2010,14 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
@@ -1868,71 +2025,83 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
-      </c>
-      <c r="F41" s="3">
-        <v>300</v>
-      </c>
-      <c r="G41" s="3">
-        <v>300</v>
       </c>
       <c r="H41" s="3">
         <v>300</v>
       </c>
       <c r="I41" s="3">
+        <v>300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>300</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>300</v>
-      </c>
-      <c r="M41" s="3">
-        <v>300</v>
-      </c>
-      <c r="N41" s="3">
-        <v>500</v>
       </c>
       <c r="O41" s="3">
         <v>300</v>
       </c>
       <c r="P41" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>300</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,66 +2234,78 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
       </c>
       <c r="F43" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G43" s="3">
         <v>300</v>
       </c>
       <c r="H43" s="3">
+        <v>500</v>
+      </c>
+      <c r="I43" s="3">
+        <v>300</v>
+      </c>
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>600</v>
+      </c>
+      <c r="E44" s="3">
         <v>500</v>
-      </c>
-      <c r="E44" s="3">
-        <v>400</v>
       </c>
       <c r="F44" s="3">
         <v>500</v>
       </c>
       <c r="G44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H44" s="3">
         <v>500</v>
@@ -2129,22 +2320,28 @@
         <v>500</v>
       </c>
       <c r="L44" s="3">
+        <v>500</v>
+      </c>
+      <c r="M44" s="3">
+        <v>500</v>
+      </c>
+      <c r="N44" s="3">
         <v>600</v>
-      </c>
-      <c r="M44" s="3">
-        <v>600</v>
-      </c>
-      <c r="N44" s="3">
-        <v>500</v>
       </c>
       <c r="O44" s="3">
         <v>600</v>
       </c>
       <c r="P44" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q44" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,25 +2384,31 @@
       <c r="P45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E46" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F46" s="3">
         <v>1400</v>
       </c>
       <c r="G46" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="H46" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I46" s="3">
         <v>1200</v>
@@ -2214,10 +2417,10 @@
         <v>1300</v>
       </c>
       <c r="K46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L46" s="3">
         <v>1300</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1400</v>
       </c>
       <c r="M46" s="3">
         <v>1300</v>
@@ -2226,13 +2429,19 @@
         <v>1400</v>
       </c>
       <c r="O46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2484,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2284,19 +2499,19 @@
         <v>900</v>
       </c>
       <c r="E48" s="3">
+        <v>900</v>
+      </c>
+      <c r="F48" s="3">
+        <v>900</v>
+      </c>
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
@@ -2308,10 +2523,10 @@
         <v>200</v>
       </c>
       <c r="M48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O48" s="3">
         <v>300</v>
@@ -2319,8 +2534,14 @@
       <c r="P48" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>300</v>
+      </c>
+      <c r="R48" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2352,10 +2573,10 @@
         <v>100</v>
       </c>
       <c r="M49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O49" s="3">
         <v>200</v>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>200</v>
+      </c>
+      <c r="R49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2466,10 +2705,10 @@
         <v>300</v>
       </c>
       <c r="G52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>200</v>
+      </c>
+      <c r="R52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2784,14 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2548,16 +2799,16 @@
         <v>2700</v>
       </c>
       <c r="E54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F54" s="3">
         <v>2700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H54" s="3">
         <v>2200</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1900</v>
       </c>
       <c r="I54" s="3">
         <v>1800</v>
@@ -2566,25 +2817,31 @@
         <v>1900</v>
       </c>
       <c r="K54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L54" s="3">
         <v>1900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N54" s="3">
         <v>2000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,13 +2878,15 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E57" s="3">
         <v>600</v>
@@ -2634,48 +2895,54 @@
         <v>600</v>
       </c>
       <c r="G57" s="3">
+        <v>600</v>
+      </c>
+      <c r="H57" s="3">
+        <v>600</v>
+      </c>
+      <c r="I57" s="3">
         <v>500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>500</v>
       </c>
       <c r="K57" s="3">
+        <v>400</v>
+      </c>
+      <c r="L57" s="3">
         <v>500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>600</v>
       </c>
       <c r="M57" s="3">
         <v>500</v>
       </c>
       <c r="N57" s="3">
+        <v>600</v>
+      </c>
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2707,25 +2974,31 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -2739,11 +3012,11 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>10</v>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>10</v>
@@ -2751,8 +3024,14 @@
       <c r="P59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2760,51 +3039,57 @@
         <v>800</v>
       </c>
       <c r="E60" s="3">
+        <v>700</v>
+      </c>
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
+        <v>800</v>
+      </c>
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>400</v>
       </c>
       <c r="J60" s="3">
         <v>500</v>
       </c>
       <c r="K60" s="3">
+        <v>400</v>
+      </c>
+      <c r="L60" s="3">
         <v>500</v>
-      </c>
-      <c r="L60" s="3">
-        <v>600</v>
       </c>
       <c r="M60" s="3">
         <v>500</v>
       </c>
       <c r="N60" s="3">
+        <v>600</v>
+      </c>
+      <c r="O60" s="3">
         <v>500</v>
-      </c>
-      <c r="O60" s="3">
-        <v>400</v>
       </c>
       <c r="P60" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>400</v>
+      </c>
+      <c r="R60" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
@@ -2839,31 +3124,37 @@
       <c r="P61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>100</v>
+      </c>
+      <c r="R61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3324,14 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3024,34 +3339,34 @@
         <v>1400</v>
       </c>
       <c r="E66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G66" s="3">
         <v>1500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>600</v>
-      </c>
-      <c r="H66" s="3">
-        <v>600</v>
-      </c>
-      <c r="I66" s="3">
-        <v>500</v>
       </c>
       <c r="J66" s="3">
         <v>600</v>
       </c>
       <c r="K66" s="3">
+        <v>500</v>
+      </c>
+      <c r="L66" s="3">
         <v>600</v>
-      </c>
-      <c r="L66" s="3">
-        <v>700</v>
       </c>
       <c r="M66" s="3">
         <v>600</v>
       </c>
       <c r="N66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O66" s="3">
         <v>600</v>
@@ -3059,8 +3374,14 @@
       <c r="P66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>600</v>
+      </c>
+      <c r="R66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,13 +3594,19 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-61500</v>
+        <v>-61400</v>
       </c>
       <c r="E72" s="3">
         <v>-61500</v>
@@ -3268,16 +3615,16 @@
         <v>-61500</v>
       </c>
       <c r="G72" s="3">
-        <v>-61600</v>
+        <v>-61500</v>
       </c>
       <c r="H72" s="3">
         <v>-61500</v>
       </c>
       <c r="I72" s="3">
-        <v>-61400</v>
+        <v>-61600</v>
       </c>
       <c r="J72" s="3">
-        <v>-61400</v>
+        <v>-61500</v>
       </c>
       <c r="K72" s="3">
         <v>-61400</v>
@@ -3286,19 +3633,25 @@
         <v>-61400</v>
       </c>
       <c r="M72" s="3">
-        <v>-61300</v>
+        <v>-61400</v>
       </c>
       <c r="N72" s="3">
-        <v>-61200</v>
+        <v>-61400</v>
       </c>
       <c r="O72" s="3">
         <v>-61300</v>
       </c>
       <c r="P72" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-61300</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-61300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,28 +3794,34 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G76" s="3">
         <v>1200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I76" s="3">
-        <v>1300</v>
       </c>
       <c r="J76" s="3">
         <v>1300</v>
@@ -3462,19 +3833,25 @@
         <v>1300</v>
       </c>
       <c r="M76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O76" s="3">
         <v>1400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,62 +3894,74 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -3581,14 +3970,14 @@
         <v>0</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
@@ -3596,22 +3985,28 @@
         <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,16 +4023,18 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
       <c r="H89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3966,40 +4407,46 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>100</v>
-      </c>
-      <c r="G91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>100</v>
+      </c>
+      <c r="I91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H91" s="3" t="s">
+      <c r="J91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L91" s="3" t="s">
+      <c r="N91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4101,14 +4560,14 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4859,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>-200</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMTY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMTY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>AMTY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,89 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -747,28 +755,28 @@
         <v>1100</v>
       </c>
       <c r="E8" s="3">
+        <v>800</v>
+      </c>
+      <c r="F8" s="3">
         <v>1100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1000</v>
       </c>
       <c r="G8" s="3">
         <v>1100</v>
       </c>
       <c r="H8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>800</v>
-      </c>
-      <c r="K8" s="3">
-        <v>900</v>
-      </c>
-      <c r="L8" s="3">
-        <v>900</v>
       </c>
       <c r="M8" s="3">
         <v>900</v>
@@ -777,39 +785,45 @@
         <v>900</v>
       </c>
       <c r="O8" s="3">
+        <v>900</v>
+      </c>
+      <c r="P8" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q8" s="3">
         <v>800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>600</v>
+      </c>
+      <c r="F9" s="3">
         <v>800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>700</v>
-      </c>
-      <c r="H9" s="3">
-        <v>600</v>
-      </c>
-      <c r="I9" s="3">
-        <v>600</v>
       </c>
       <c r="J9" s="3">
         <v>600</v>
@@ -818,7 +832,7 @@
         <v>600</v>
       </c>
       <c r="L9" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M9" s="3">
         <v>600</v>
@@ -836,36 +850,42 @@
         <v>600</v>
       </c>
       <c r="R9" s="3">
+        <v>700</v>
+      </c>
+      <c r="S9" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3">
         <v>300</v>
       </c>
       <c r="G10" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
       </c>
       <c r="I10" s="3">
+        <v>400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>300</v>
+      </c>
+      <c r="K10" s="3">
         <v>200</v>
-      </c>
-      <c r="J10" s="3">
-        <v>200</v>
-      </c>
-      <c r="K10" s="3">
-        <v>300</v>
       </c>
       <c r="L10" s="3">
         <v>200</v>
@@ -877,19 +897,25 @@
         <v>200</v>
       </c>
       <c r="O10" s="3">
+        <v>300</v>
+      </c>
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
+        <v>200</v>
+      </c>
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,10 +969,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
@@ -958,8 +986,14 @@
       <c r="R12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>100</v>
+      </c>
+      <c r="T12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1042,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,17 +1089,23 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1177,10 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1134,7 +1188,7 @@
         <v>1000</v>
       </c>
       <c r="E17" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F17" s="3">
         <v>1000</v>
@@ -1143,25 +1197,25 @@
         <v>1000</v>
       </c>
       <c r="H17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J17" s="3">
         <v>900</v>
-      </c>
-      <c r="I17" s="3">
-        <v>900</v>
-      </c>
-      <c r="J17" s="3">
-        <v>800</v>
       </c>
       <c r="K17" s="3">
         <v>900</v>
       </c>
       <c r="L17" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M17" s="3">
         <v>900</v>
       </c>
       <c r="N17" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="O17" s="3">
         <v>900</v>
@@ -1173,10 +1227,16 @@
         <v>900</v>
       </c>
       <c r="R17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,10 +1244,10 @@
         <v>100</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
         <v>100</v>
@@ -1196,14 +1256,14 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
@@ -1211,22 +1271,28 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>100</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1311,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,20 +1363,26 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
       <c r="G21" s="3">
         <v>100</v>
       </c>
@@ -1316,37 +1390,43 @@
         <v>100</v>
       </c>
       <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>200</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,8 +1475,14 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1404,26 +1490,26 @@
         <v>100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
@@ -1431,22 +1517,28 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1643,14 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1554,26 +1658,26 @@
         <v>100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
@@ -1581,22 +1685,28 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1604,10 +1714,10 @@
         <v>100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -1616,14 +1726,14 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
@@ -1631,22 +1741,28 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1979,14 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,8 +2035,14 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1904,10 +2050,10 @@
         <v>100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -1916,14 +2062,14 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
@@ -1931,22 +2077,28 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>100</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2147,14 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2004,10 +2162,10 @@
         <v>100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -2016,14 +2174,14 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
@@ -2031,77 +2189,89 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2312,66 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>700</v>
+      </c>
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
-      </c>
-      <c r="H41" s="3">
-        <v>300</v>
-      </c>
-      <c r="I41" s="3">
-        <v>300</v>
       </c>
       <c r="J41" s="3">
         <v>300</v>
       </c>
       <c r="K41" s="3">
+        <v>300</v>
+      </c>
+      <c r="L41" s="3">
+        <v>300</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>300</v>
-      </c>
-      <c r="O41" s="3">
-        <v>300</v>
-      </c>
-      <c r="P41" s="3">
-        <v>500</v>
       </c>
       <c r="Q41" s="3">
         <v>300</v>
       </c>
       <c r="R41" s="3">
+        <v>500</v>
+      </c>
+      <c r="S41" s="3">
+        <v>300</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,78 +2420,90 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
       </c>
       <c r="F43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G43" s="3">
         <v>300</v>
       </c>
       <c r="H43" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
       </c>
       <c r="J43" s="3">
+        <v>500</v>
+      </c>
+      <c r="K43" s="3">
+        <v>300</v>
+      </c>
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E44" s="3">
         <v>500</v>
       </c>
       <c r="F44" s="3">
+        <v>600</v>
+      </c>
+      <c r="G44" s="3">
         <v>500</v>
-      </c>
-      <c r="G44" s="3">
-        <v>400</v>
       </c>
       <c r="H44" s="3">
         <v>500</v>
       </c>
       <c r="I44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J44" s="3">
         <v>500</v>
@@ -2326,22 +2518,28 @@
         <v>500</v>
       </c>
       <c r="N44" s="3">
+        <v>500</v>
+      </c>
+      <c r="O44" s="3">
+        <v>500</v>
+      </c>
+      <c r="P44" s="3">
         <v>600</v>
-      </c>
-      <c r="O44" s="3">
-        <v>600</v>
-      </c>
-      <c r="P44" s="3">
-        <v>500</v>
       </c>
       <c r="Q44" s="3">
         <v>600</v>
       </c>
       <c r="R44" s="3">
+        <v>500</v>
+      </c>
+      <c r="S44" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,31 +2588,37 @@
       <c r="R45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G46" s="3">
         <v>1300</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1400</v>
       </c>
       <c r="H46" s="3">
         <v>1400</v>
       </c>
       <c r="I46" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="J46" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K46" s="3">
         <v>1200</v>
@@ -2423,10 +2627,10 @@
         <v>1300</v>
       </c>
       <c r="M46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N46" s="3">
         <v>1300</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1400</v>
       </c>
       <c r="O46" s="3">
         <v>1300</v>
@@ -2435,13 +2639,19 @@
         <v>1400</v>
       </c>
       <c r="Q46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S46" s="3">
         <v>1200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,34 +2700,40 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F48" s="3">
         <v>900</v>
       </c>
       <c r="G48" s="3">
+        <v>900</v>
+      </c>
+      <c r="H48" s="3">
+        <v>900</v>
+      </c>
+      <c r="I48" s="3">
         <v>1000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>300</v>
-      </c>
-      <c r="J48" s="3">
-        <v>200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
@@ -2529,10 +2745,10 @@
         <v>200</v>
       </c>
       <c r="O48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q48" s="3">
         <v>300</v>
@@ -2540,8 +2756,14 @@
       <c r="R48" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>300</v>
+      </c>
+      <c r="T48" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2579,10 +2801,10 @@
         <v>100</v>
       </c>
       <c r="O49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q49" s="3">
         <v>200</v>
@@ -2590,8 +2812,14 @@
       <c r="R49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>200</v>
+      </c>
+      <c r="T49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2924,14 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2711,10 +2951,10 @@
         <v>300</v>
       </c>
       <c r="I52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>200</v>
@@ -2740,8 +2980,14 @@
       <c r="R52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>200</v>
+      </c>
+      <c r="T52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +3036,14 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2799,22 +3051,22 @@
         <v>2700</v>
       </c>
       <c r="E54" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="F54" s="3">
         <v>2700</v>
       </c>
       <c r="G54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H54" s="3">
         <v>2700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J54" s="3">
         <v>2200</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1900</v>
       </c>
       <c r="K54" s="3">
         <v>1800</v>
@@ -2823,25 +3075,31 @@
         <v>1900</v>
       </c>
       <c r="M54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N54" s="3">
         <v>1900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P54" s="3">
         <v>2000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,19 +3140,21 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
-        <v>600</v>
-      </c>
       <c r="F57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G57" s="3">
         <v>600</v>
@@ -2901,45 +3163,51 @@
         <v>600</v>
       </c>
       <c r="I57" s="3">
+        <v>600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>600</v>
+      </c>
+      <c r="K57" s="3">
         <v>500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>500</v>
       </c>
       <c r="M57" s="3">
+        <v>400</v>
+      </c>
+      <c r="N57" s="3">
         <v>500</v>
-      </c>
-      <c r="N57" s="3">
-        <v>600</v>
       </c>
       <c r="O57" s="3">
         <v>500</v>
       </c>
       <c r="P57" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
+        <v>500</v>
+      </c>
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2980,8 +3248,14 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2989,22 +3263,22 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -3018,11 +3292,11 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>10</v>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>10</v>
@@ -3030,58 +3304,70 @@
       <c r="R59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E60" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F60" s="3">
         <v>800</v>
       </c>
       <c r="G60" s="3">
+        <v>700</v>
+      </c>
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
+        <v>800</v>
+      </c>
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
-      </c>
-      <c r="J60" s="3">
-        <v>500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>400</v>
       </c>
       <c r="L60" s="3">
         <v>500</v>
       </c>
       <c r="M60" s="3">
+        <v>400</v>
+      </c>
+      <c r="N60" s="3">
         <v>500</v>
-      </c>
-      <c r="N60" s="3">
-        <v>600</v>
       </c>
       <c r="O60" s="3">
         <v>500</v>
       </c>
       <c r="P60" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q60" s="3">
         <v>500</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>400</v>
       </c>
       <c r="R60" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>400</v>
+      </c>
+      <c r="T60" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3089,7 +3375,7 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
@@ -3130,38 +3416,44 @@
       <c r="R61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>100</v>
+      </c>
+      <c r="T61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>400</v>
+      </c>
+      <c r="F62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="L62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
@@ -3180,8 +3472,14 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,8 +3640,14 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3339,40 +3655,40 @@
         <v>1400</v>
       </c>
       <c r="E66" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F66" s="3">
         <v>1400</v>
       </c>
       <c r="G66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I66" s="3">
         <v>1500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>600</v>
-      </c>
-      <c r="J66" s="3">
-        <v>600</v>
-      </c>
-      <c r="K66" s="3">
-        <v>500</v>
       </c>
       <c r="L66" s="3">
         <v>600</v>
       </c>
       <c r="M66" s="3">
+        <v>500</v>
+      </c>
+      <c r="N66" s="3">
         <v>600</v>
-      </c>
-      <c r="N66" s="3">
-        <v>700</v>
       </c>
       <c r="O66" s="3">
         <v>600</v>
       </c>
       <c r="P66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q66" s="3">
         <v>600</v>
@@ -3380,8 +3696,14 @@
       <c r="R66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>600</v>
+      </c>
+      <c r="T66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,19 +3942,25 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-61400</v>
+        <v>-61500</v>
       </c>
       <c r="E72" s="3">
         <v>-61500</v>
       </c>
       <c r="F72" s="3">
-        <v>-61500</v>
+        <v>-61400</v>
       </c>
       <c r="G72" s="3">
         <v>-61500</v>
@@ -3621,16 +3969,16 @@
         <v>-61500</v>
       </c>
       <c r="I72" s="3">
-        <v>-61600</v>
+        <v>-61500</v>
       </c>
       <c r="J72" s="3">
         <v>-61500</v>
       </c>
       <c r="K72" s="3">
-        <v>-61400</v>
+        <v>-61600</v>
       </c>
       <c r="L72" s="3">
-        <v>-61400</v>
+        <v>-61500</v>
       </c>
       <c r="M72" s="3">
         <v>-61400</v>
@@ -3639,19 +3987,25 @@
         <v>-61400</v>
       </c>
       <c r="O72" s="3">
-        <v>-61300</v>
+        <v>-61400</v>
       </c>
       <c r="P72" s="3">
-        <v>-61200</v>
+        <v>-61400</v>
       </c>
       <c r="Q72" s="3">
         <v>-61300</v>
       </c>
       <c r="R72" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="S72" s="3">
         <v>-61300</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-61300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,34 +4166,40 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E76" s="3">
         <v>1300</v>
       </c>
       <c r="F76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G76" s="3">
         <v>1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I76" s="3">
         <v>1200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1100</v>
-      </c>
-      <c r="J76" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>1300</v>
       </c>
       <c r="L76" s="3">
         <v>1300</v>
@@ -3839,19 +4211,25 @@
         <v>1300</v>
       </c>
       <c r="O76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q76" s="3">
         <v>1400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4278,75 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3964,10 +4354,10 @@
         <v>100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
@@ -3976,14 +4366,14 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
@@ -3991,22 +4381,28 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>100</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4421,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4037,10 +4435,10 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -4075,8 +4473,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4753,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
       <c r="J89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>100</v>
+      </c>
+      <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>100</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
+        <v>100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,13 +4835,15 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4413,40 +4855,46 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>100</v>
-      </c>
-      <c r="I91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>100</v>
+      </c>
+      <c r="K91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="L91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="P91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4999,14 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4566,14 +5026,14 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -4595,8 +5055,14 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5301,14 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4824,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -4865,8 +5357,14 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5413,66 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>-200</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMTY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMTY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>AMTY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,124 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>800</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1100</v>
       </c>
       <c r="G8" s="3">
         <v>1100</v>
       </c>
       <c r="H8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I8" s="3">
         <v>1000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>900</v>
-      </c>
-      <c r="K8" s="3">
-        <v>800</v>
       </c>
       <c r="L8" s="3">
         <v>800</v>
       </c>
       <c r="M8" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="N8" s="3">
         <v>900</v>
@@ -791,42 +794,45 @@
         <v>900</v>
       </c>
       <c r="Q8" s="3">
+        <v>900</v>
+      </c>
+      <c r="R8" s="3">
         <v>800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>900</v>
+      </c>
+      <c r="E9" s="3">
         <v>700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>600</v>
-      </c>
-      <c r="F9" s="3">
-        <v>800</v>
       </c>
       <c r="G9" s="3">
         <v>800</v>
       </c>
       <c r="H9" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I9" s="3">
         <v>700</v>
       </c>
       <c r="J9" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K9" s="3">
         <v>600</v>
@@ -838,39 +844,42 @@
         <v>600</v>
       </c>
       <c r="N9" s="3">
+        <v>600</v>
+      </c>
+      <c r="O9" s="3">
         <v>700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>700</v>
-      </c>
-      <c r="S9" s="3">
-        <v>600</v>
       </c>
       <c r="T9" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>200</v>
-      </c>
-      <c r="F10" s="3">
-        <v>300</v>
       </c>
       <c r="G10" s="3">
         <v>300</v>
@@ -879,43 +888,46 @@
         <v>300</v>
       </c>
       <c r="I10" s="3">
+        <v>300</v>
+      </c>
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
-      </c>
-      <c r="K10" s="3">
-        <v>200</v>
       </c>
       <c r="L10" s="3">
         <v>200</v>
       </c>
       <c r="M10" s="3">
+        <v>200</v>
+      </c>
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
-      </c>
-      <c r="P10" s="3">
-        <v>200</v>
       </c>
       <c r="Q10" s="3">
         <v>200</v>
       </c>
       <c r="R10" s="3">
+        <v>200</v>
+      </c>
+      <c r="S10" s="3">
         <v>400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,31 +1064,34 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1095,8 +1114,8 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1204,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1188,10 +1214,10 @@
         <v>1000</v>
       </c>
       <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>900</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1000</v>
       </c>
       <c r="G17" s="3">
         <v>1000</v>
@@ -1203,16 +1229,16 @@
         <v>1000</v>
       </c>
       <c r="J17" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K17" s="3">
         <v>900</v>
       </c>
       <c r="L17" s="3">
+        <v>900</v>
+      </c>
+      <c r="M17" s="3">
         <v>800</v>
-      </c>
-      <c r="M17" s="3">
-        <v>900</v>
       </c>
       <c r="N17" s="3">
         <v>900</v>
@@ -1221,52 +1247,55 @@
         <v>900</v>
       </c>
       <c r="P17" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
-      </c>
-      <c r="S17" s="3">
-        <v>900</v>
       </c>
       <c r="T17" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
       <c r="G18" s="3">
         <v>100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1277,22 +1306,25 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,23 +1402,26 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
       <c r="H21" s="3">
         <v>100</v>
       </c>
@@ -1396,37 +1432,40 @@
         <v>100</v>
       </c>
       <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
       <c r="N21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>200</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,38 +1520,41 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>100</v>
       </c>
       <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1523,22 +1565,25 @@
         <v>0</v>
       </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,38 +1697,41 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>100</v>
       </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1691,36 +1742,39 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -1732,11 +1786,11 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -1747,22 +1801,25 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,22 +2110,25 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -2068,11 +2140,11 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -2083,22 +2155,25 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,22 +2228,25 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -2180,11 +2258,11 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -2195,83 +2273,89 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2399,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2323,22 +2409,22 @@
         <v>600</v>
       </c>
       <c r="E41" s="3">
+        <v>600</v>
+      </c>
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
-      </c>
-      <c r="J41" s="3">
-        <v>300</v>
       </c>
       <c r="K41" s="3">
         <v>300</v>
@@ -2347,31 +2433,34 @@
         <v>300</v>
       </c>
       <c r="M41" s="3">
+        <v>300</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
       <c r="P41" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>300</v>
       </c>
       <c r="R41" s="3">
+        <v>300</v>
+      </c>
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2438,10 +2530,10 @@
         <v>300</v>
       </c>
       <c r="F43" s="3">
+        <v>300</v>
+      </c>
+      <c r="G43" s="3">
         <v>400</v>
-      </c>
-      <c r="G43" s="3">
-        <v>300</v>
       </c>
       <c r="H43" s="3">
         <v>300</v>
@@ -2450,40 +2542,43 @@
         <v>300</v>
       </c>
       <c r="J43" s="3">
+        <v>300</v>
+      </c>
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
-      </c>
-      <c r="L43" s="3">
-        <v>400</v>
       </c>
       <c r="M43" s="3">
         <v>400</v>
       </c>
       <c r="N43" s="3">
+        <v>400</v>
+      </c>
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>300</v>
       </c>
       <c r="R43" s="3">
         <v>300</v>
       </c>
       <c r="S43" s="3">
+        <v>300</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2494,19 +2589,19 @@
         <v>500</v>
       </c>
       <c r="F44" s="3">
+        <v>500</v>
+      </c>
+      <c r="G44" s="3">
         <v>600</v>
-      </c>
-      <c r="G44" s="3">
-        <v>500</v>
       </c>
       <c r="H44" s="3">
         <v>500</v>
       </c>
       <c r="I44" s="3">
+        <v>500</v>
+      </c>
+      <c r="J44" s="3">
         <v>400</v>
-      </c>
-      <c r="J44" s="3">
-        <v>500</v>
       </c>
       <c r="K44" s="3">
         <v>500</v>
@@ -2524,22 +2619,25 @@
         <v>500</v>
       </c>
       <c r="P44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q44" s="3">
         <v>600</v>
       </c>
       <c r="R44" s="3">
+        <v>600</v>
+      </c>
+      <c r="S44" s="3">
         <v>500</v>
-      </c>
-      <c r="S44" s="3">
-        <v>600</v>
       </c>
       <c r="T44" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,25 +2692,28 @@
       <c r="T45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1600</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1500</v>
       </c>
       <c r="F46" s="3">
         <v>1500</v>
       </c>
       <c r="G46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H46" s="3">
         <v>1300</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1400</v>
       </c>
       <c r="I46" s="3">
         <v>1400</v>
@@ -2621,37 +2722,40 @@
         <v>1400</v>
       </c>
       <c r="K46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1300</v>
       </c>
       <c r="O46" s="3">
         <v>1300</v>
       </c>
       <c r="P46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,19 +2810,22 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E48" s="3">
         <v>800</v>
       </c>
       <c r="F48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G48" s="3">
         <v>900</v>
@@ -2727,16 +2834,16 @@
         <v>900</v>
       </c>
       <c r="I48" s="3">
+        <v>900</v>
+      </c>
+      <c r="J48" s="3">
         <v>1000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>300</v>
-      </c>
-      <c r="L48" s="3">
-        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
@@ -2751,7 +2858,7 @@
         <v>200</v>
       </c>
       <c r="Q48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R48" s="3">
         <v>300</v>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2807,7 +2917,7 @@
         <v>100</v>
       </c>
       <c r="Q49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R49" s="3">
         <v>200</v>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2957,7 +3076,7 @@
         <v>300</v>
       </c>
       <c r="K52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2600</v>
-      </c>
-      <c r="H54" s="3">
-        <v>2700</v>
       </c>
       <c r="I54" s="3">
         <v>2700</v>
       </c>
       <c r="J54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K54" s="3">
         <v>2200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1800</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1900</v>
       </c>
       <c r="O54" s="3">
         <v>1900</v>
       </c>
       <c r="P54" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="Q54" s="3">
         <v>2000</v>
       </c>
       <c r="R54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S54" s="3">
         <v>2100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,22 +3271,23 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>700</v>
       </c>
       <c r="F57" s="3">
         <v>700</v>
       </c>
       <c r="G57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H57" s="3">
         <v>600</v>
@@ -3169,48 +3299,51 @@
         <v>600</v>
       </c>
       <c r="K57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L57" s="3">
         <v>500</v>
       </c>
       <c r="M57" s="3">
+        <v>500</v>
+      </c>
+      <c r="N57" s="3">
         <v>400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>500</v>
       </c>
       <c r="O57" s="3">
         <v>500</v>
       </c>
       <c r="P57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q57" s="3">
         <v>600</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>500</v>
       </c>
       <c r="R57" s="3">
         <v>500</v>
       </c>
       <c r="S57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3254,13 +3387,16 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
@@ -3269,10 +3405,10 @@
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
@@ -3281,7 +3417,7 @@
         <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -3298,8 +3434,8 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>10</v>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>10</v>
@@ -3310,64 +3446,70 @@
       <c r="T59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E60" s="3">
         <v>900</v>
       </c>
       <c r="F60" s="3">
+        <v>900</v>
+      </c>
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
-      </c>
-      <c r="H60" s="3">
-        <v>800</v>
       </c>
       <c r="I60" s="3">
         <v>800</v>
       </c>
       <c r="J60" s="3">
+        <v>800</v>
+      </c>
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>500</v>
       </c>
       <c r="O60" s="3">
         <v>500</v>
       </c>
       <c r="P60" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q60" s="3">
         <v>600</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>500</v>
       </c>
       <c r="R60" s="3">
         <v>500</v>
       </c>
       <c r="S60" s="3">
+        <v>500</v>
+      </c>
+      <c r="T60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3375,11 +3517,11 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
+        <v>100</v>
+      </c>
+      <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
-        <v>100</v>
-      </c>
       <c r="G61" s="3">
         <v>100</v>
       </c>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3434,28 +3579,28 @@
         <v>400</v>
       </c>
       <c r="F62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G62" s="3">
         <v>500</v>
       </c>
       <c r="H62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I62" s="3">
         <v>600</v>
       </c>
       <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>10</v>
+        <v>600</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,52 +3800,55 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1000</v>
-      </c>
-      <c r="K66" s="3">
-        <v>600</v>
       </c>
       <c r="L66" s="3">
         <v>600</v>
       </c>
       <c r="M66" s="3">
+        <v>600</v>
+      </c>
+      <c r="N66" s="3">
         <v>500</v>
-      </c>
-      <c r="N66" s="3">
-        <v>600</v>
       </c>
       <c r="O66" s="3">
         <v>600</v>
       </c>
       <c r="P66" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q66" s="3">
         <v>700</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>600</v>
       </c>
       <c r="R66" s="3">
         <v>600</v>
@@ -3702,8 +3859,11 @@
       <c r="T66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,22 +4118,25 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-61500</v>
+        <v>-61300</v>
       </c>
       <c r="E72" s="3">
         <v>-61500</v>
       </c>
       <c r="F72" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="G72" s="3">
         <v>-61400</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-61500</v>
       </c>
       <c r="H72" s="3">
         <v>-61500</v>
@@ -3975,13 +4148,13 @@
         <v>-61500</v>
       </c>
       <c r="K72" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="L72" s="3">
         <v>-61600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-61500</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-61400</v>
       </c>
       <c r="N72" s="3">
         <v>-61400</v>
@@ -3993,19 +4166,22 @@
         <v>-61400</v>
       </c>
       <c r="Q72" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="R72" s="3">
         <v>-61300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-61200</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-61300</v>
       </c>
       <c r="T72" s="3">
         <v>-61300</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>-61300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,37 +4354,40 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="E76" s="3">
         <v>1300</v>
       </c>
       <c r="F76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G76" s="3">
         <v>1400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1300</v>
       </c>
       <c r="H76" s="3">
         <v>1300</v>
       </c>
       <c r="I76" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="J76" s="3">
         <v>1200</v>
       </c>
       <c r="K76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L76" s="3">
         <v>1100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>1300</v>
       </c>
       <c r="M76" s="3">
         <v>1300</v>
@@ -4217,19 +4402,22 @@
         <v>1300</v>
       </c>
       <c r="Q76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R76" s="3">
         <v>1400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1500</v>
-      </c>
-      <c r="S76" s="3">
-        <v>1300</v>
       </c>
       <c r="T76" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,83 +4472,89 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
@@ -4372,11 +4566,11 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -4387,22 +4581,25 @@
         <v>0</v>
       </c>
       <c r="P81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4441,7 +4639,7 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,55 +4984,58 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>100</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>100</v>
       </c>
       <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
-        <v>100</v>
-      </c>
       <c r="T89" s="3">
+        <v>100</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,16 +5056,17 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4861,28 +5081,28 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>100</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>100</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>10</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5032,11 +5261,11 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5316,10 +5561,10 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5428,51 +5679,54 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>-100</v>
       </c>
       <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMTY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMTY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -758,34 +762,34 @@
         <v>1200</v>
       </c>
       <c r="E8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F8" s="3">
         <v>1100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>800</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1100</v>
       </c>
       <c r="H8" s="3">
         <v>1100</v>
       </c>
       <c r="I8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J8" s="3">
         <v>1000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>900</v>
-      </c>
-      <c r="L8" s="3">
-        <v>800</v>
       </c>
       <c r="M8" s="3">
         <v>800</v>
       </c>
       <c r="N8" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="O8" s="3">
         <v>900</v>
@@ -797,19 +801,22 @@
         <v>900</v>
       </c>
       <c r="R8" s="3">
+        <v>900</v>
+      </c>
+      <c r="S8" s="3">
         <v>800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -817,25 +824,25 @@
         <v>900</v>
       </c>
       <c r="E9" s="3">
+        <v>900</v>
+      </c>
+      <c r="F9" s="3">
         <v>700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>600</v>
-      </c>
-      <c r="G9" s="3">
-        <v>800</v>
       </c>
       <c r="H9" s="3">
         <v>800</v>
       </c>
       <c r="I9" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J9" s="3">
         <v>700</v>
       </c>
       <c r="K9" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L9" s="3">
         <v>600</v>
@@ -847,28 +854,31 @@
         <v>600</v>
       </c>
       <c r="O9" s="3">
+        <v>600</v>
+      </c>
+      <c r="P9" s="3">
         <v>700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>700</v>
-      </c>
-      <c r="T9" s="3">
-        <v>600</v>
       </c>
       <c r="U9" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -876,13 +886,13 @@
         <v>300</v>
       </c>
       <c r="E10" s="3">
+        <v>300</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>300</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
@@ -891,43 +901,46 @@
         <v>300</v>
       </c>
       <c r="J10" s="3">
+        <v>300</v>
+      </c>
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
-      </c>
-      <c r="L10" s="3">
-        <v>200</v>
       </c>
       <c r="M10" s="3">
         <v>200</v>
       </c>
       <c r="N10" s="3">
+        <v>200</v>
+      </c>
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>200</v>
       </c>
       <c r="R10" s="3">
         <v>200</v>
       </c>
       <c r="S10" s="3">
+        <v>200</v>
+      </c>
+      <c r="T10" s="3">
         <v>400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="3">
         <v>100</v>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,16 +1084,19 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -1093,8 +1113,8 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1117,8 +1137,8 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,22 +1231,23 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E17" s="3">
         <v>1000</v>
       </c>
       <c r="F17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="3">
         <v>900</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1000</v>
       </c>
       <c r="H17" s="3">
         <v>1000</v>
@@ -1232,16 +1259,16 @@
         <v>1000</v>
       </c>
       <c r="K17" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L17" s="3">
         <v>900</v>
       </c>
       <c r="M17" s="3">
+        <v>900</v>
+      </c>
+      <c r="N17" s="3">
         <v>800</v>
-      </c>
-      <c r="N17" s="3">
-        <v>900</v>
       </c>
       <c r="O17" s="3">
         <v>900</v>
@@ -1250,55 +1277,58 @@
         <v>900</v>
       </c>
       <c r="Q17" s="3">
+        <v>900</v>
+      </c>
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
-      </c>
-      <c r="T17" s="3">
-        <v>900</v>
       </c>
       <c r="U17" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
       <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
       <c r="H18" s="3">
         <v>100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1309,22 +1339,25 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1405,26 +1439,29 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
       <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
       <c r="I21" s="3">
         <v>100</v>
       </c>
@@ -1435,37 +1472,40 @@
         <v>100</v>
       </c>
       <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
         <v>0</v>
       </c>
       <c r="O21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q21" s="3">
         <v>0</v>
       </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>200</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,41 +1563,44 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
       <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>100</v>
       </c>
       <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1568,22 +1611,25 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
       </c>
       <c r="S23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,41 +1749,44 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
       <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>100</v>
       </c>
       <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -1745,39 +1797,42 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
       <c r="S26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
       <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
@@ -1789,11 +1844,11 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -1804,22 +1859,25 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
       <c r="S27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2113,25 +2183,28 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
       <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
@@ -2143,11 +2216,11 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -2158,22 +2231,25 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
       <c r="S33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,25 +2307,28 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
-        <v>100</v>
-      </c>
       <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
@@ -2261,11 +2340,11 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -2276,86 +2355,92 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
       <c r="S35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,34 +2486,35 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E41" s="3">
         <v>600</v>
       </c>
       <c r="F41" s="3">
+        <v>600</v>
+      </c>
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
-      </c>
-      <c r="K41" s="3">
-        <v>300</v>
       </c>
       <c r="L41" s="3">
         <v>300</v>
@@ -2436,31 +2523,34 @@
         <v>300</v>
       </c>
       <c r="N41" s="3">
+        <v>300</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
       <c r="Q41" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>300</v>
       </c>
       <c r="S41" s="3">
+        <v>300</v>
+      </c>
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2533,10 +2626,10 @@
         <v>300</v>
       </c>
       <c r="G43" s="3">
+        <v>300</v>
+      </c>
+      <c r="H43" s="3">
         <v>400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>300</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
@@ -2545,40 +2638,43 @@
         <v>300</v>
       </c>
       <c r="K43" s="3">
+        <v>300</v>
+      </c>
+      <c r="L43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
-      </c>
-      <c r="M43" s="3">
-        <v>400</v>
       </c>
       <c r="N43" s="3">
         <v>400</v>
       </c>
       <c r="O43" s="3">
+        <v>400</v>
+      </c>
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>400</v>
-      </c>
-      <c r="R43" s="3">
-        <v>300</v>
       </c>
       <c r="S43" s="3">
         <v>300</v>
       </c>
       <c r="T43" s="3">
+        <v>300</v>
+      </c>
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2592,19 +2688,19 @@
         <v>500</v>
       </c>
       <c r="G44" s="3">
+        <v>500</v>
+      </c>
+      <c r="H44" s="3">
         <v>600</v>
-      </c>
-      <c r="H44" s="3">
-        <v>500</v>
       </c>
       <c r="I44" s="3">
         <v>500</v>
       </c>
       <c r="J44" s="3">
+        <v>500</v>
+      </c>
+      <c r="K44" s="3">
         <v>400</v>
-      </c>
-      <c r="K44" s="3">
-        <v>500</v>
       </c>
       <c r="L44" s="3">
         <v>500</v>
@@ -2622,27 +2718,30 @@
         <v>500</v>
       </c>
       <c r="Q44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="R44" s="3">
         <v>600</v>
       </c>
       <c r="S44" s="3">
+        <v>600</v>
+      </c>
+      <c r="T44" s="3">
         <v>500</v>
-      </c>
-      <c r="T44" s="3">
-        <v>600</v>
       </c>
       <c r="U44" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2695,28 +2794,31 @@
       <c r="U45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1600</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1500</v>
       </c>
       <c r="G46" s="3">
         <v>1500</v>
       </c>
       <c r="H46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I46" s="3">
         <v>1300</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1400</v>
       </c>
       <c r="J46" s="3">
         <v>1400</v>
@@ -2725,37 +2827,40 @@
         <v>1400</v>
       </c>
       <c r="L46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
-      </c>
-      <c r="O46" s="3">
-        <v>1300</v>
       </c>
       <c r="P46" s="3">
         <v>1300</v>
       </c>
       <c r="Q46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R46" s="3">
         <v>1400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2822,13 +2930,13 @@
         <v>700</v>
       </c>
       <c r="E48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F48" s="3">
         <v>800</v>
       </c>
       <c r="G48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H48" s="3">
         <v>900</v>
@@ -2837,16 +2945,16 @@
         <v>900</v>
       </c>
       <c r="J48" s="3">
+        <v>900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>300</v>
-      </c>
-      <c r="M48" s="3">
-        <v>200</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
@@ -2861,7 +2969,7 @@
         <v>200</v>
       </c>
       <c r="R48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S48" s="3">
         <v>300</v>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2920,7 +3031,7 @@
         <v>100</v>
       </c>
       <c r="R49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S49" s="3">
         <v>200</v>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,13 +3166,16 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E52" s="3">
         <v>300</v>
@@ -3079,7 +3199,7 @@
         <v>300</v>
       </c>
       <c r="L52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M52" s="3">
         <v>200</v>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E54" s="3">
         <v>2600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2600</v>
-      </c>
-      <c r="I54" s="3">
-        <v>2700</v>
       </c>
       <c r="J54" s="3">
         <v>2700</v>
       </c>
       <c r="K54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L54" s="3">
         <v>2200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1800</v>
-      </c>
-      <c r="O54" s="3">
-        <v>1900</v>
       </c>
       <c r="P54" s="3">
         <v>1900</v>
       </c>
       <c r="Q54" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="R54" s="3">
         <v>2000</v>
       </c>
       <c r="S54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T54" s="3">
         <v>2100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,25 +3402,26 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>700</v>
       </c>
       <c r="G57" s="3">
         <v>700</v>
       </c>
       <c r="H57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I57" s="3">
         <v>600</v>
@@ -3302,37 +3433,40 @@
         <v>600</v>
       </c>
       <c r="L57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M57" s="3">
         <v>500</v>
       </c>
       <c r="N57" s="3">
+        <v>500</v>
+      </c>
+      <c r="O57" s="3">
         <v>400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>500</v>
       </c>
       <c r="P57" s="3">
         <v>500</v>
       </c>
       <c r="Q57" s="3">
+        <v>500</v>
+      </c>
+      <c r="R57" s="3">
         <v>600</v>
-      </c>
-      <c r="R57" s="3">
-        <v>500</v>
       </c>
       <c r="S57" s="3">
         <v>500</v>
       </c>
       <c r="T57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3340,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3390,16 +3524,19 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
@@ -3408,10 +3545,10 @@
         <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
@@ -3420,7 +3557,7 @@
         <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3437,8 +3574,8 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>10</v>
+      <c r="R59" s="3">
+        <v>0</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>10</v>
@@ -3449,67 +3586,73 @@
       <c r="U59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
-      </c>
-      <c r="E60" s="3">
-        <v>900</v>
       </c>
       <c r="F60" s="3">
         <v>900</v>
       </c>
       <c r="G60" s="3">
+        <v>900</v>
+      </c>
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>800</v>
       </c>
       <c r="J60" s="3">
         <v>800</v>
       </c>
       <c r="K60" s="3">
+        <v>800</v>
+      </c>
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>500</v>
       </c>
       <c r="P60" s="3">
         <v>500</v>
       </c>
       <c r="Q60" s="3">
+        <v>500</v>
+      </c>
+      <c r="R60" s="3">
         <v>600</v>
-      </c>
-      <c r="R60" s="3">
-        <v>500</v>
       </c>
       <c r="S60" s="3">
         <v>500</v>
       </c>
       <c r="T60" s="3">
+        <v>500</v>
+      </c>
+      <c r="U60" s="3">
         <v>400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3520,11 +3663,11 @@
         <v>100</v>
       </c>
       <c r="F61" s="3">
+        <v>100</v>
+      </c>
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="G61" s="3">
-        <v>100</v>
-      </c>
       <c r="H61" s="3">
         <v>100</v>
       </c>
@@ -3567,13 +3710,16 @@
       <c r="U61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
         <v>400</v>
@@ -3582,28 +3728,28 @@
         <v>400</v>
       </c>
       <c r="G62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H62" s="3">
         <v>500</v>
       </c>
       <c r="I62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J62" s="3">
         <v>600</v>
       </c>
       <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>10</v>
+        <v>600</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,55 +3958,58 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
-      </c>
-      <c r="L66" s="3">
-        <v>600</v>
       </c>
       <c r="M66" s="3">
         <v>600</v>
       </c>
       <c r="N66" s="3">
+        <v>600</v>
+      </c>
+      <c r="O66" s="3">
         <v>500</v>
-      </c>
-      <c r="O66" s="3">
-        <v>600</v>
       </c>
       <c r="P66" s="3">
         <v>600</v>
       </c>
       <c r="Q66" s="3">
+        <v>600</v>
+      </c>
+      <c r="R66" s="3">
         <v>700</v>
-      </c>
-      <c r="R66" s="3">
-        <v>600</v>
       </c>
       <c r="S66" s="3">
         <v>600</v>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,25 +4292,28 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-61300</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-61500</v>
       </c>
       <c r="F72" s="3">
         <v>-61500</v>
       </c>
       <c r="G72" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="H72" s="3">
         <v>-61400</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-61500</v>
       </c>
       <c r="I72" s="3">
         <v>-61500</v>
@@ -4151,13 +4325,13 @@
         <v>-61500</v>
       </c>
       <c r="L72" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="M72" s="3">
         <v>-61600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-61500</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-61400</v>
       </c>
       <c r="O72" s="3">
         <v>-61400</v>
@@ -4169,19 +4343,22 @@
         <v>-61400</v>
       </c>
       <c r="R72" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="S72" s="3">
         <v>-61300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-61200</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-61300</v>
       </c>
       <c r="U72" s="3">
         <v>-61300</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>-61300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,40 +4540,43 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1500</v>
-      </c>
-      <c r="E76" s="3">
-        <v>1300</v>
       </c>
       <c r="F76" s="3">
         <v>1300</v>
       </c>
       <c r="G76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H76" s="3">
         <v>1400</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1300</v>
       </c>
       <c r="I76" s="3">
         <v>1300</v>
       </c>
       <c r="J76" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="K76" s="3">
         <v>1200</v>
       </c>
       <c r="L76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M76" s="3">
         <v>1100</v>
-      </c>
-      <c r="M76" s="3">
-        <v>1300</v>
       </c>
       <c r="N76" s="3">
         <v>1300</v>
@@ -4405,19 +4591,22 @@
         <v>1300</v>
       </c>
       <c r="R76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S76" s="3">
         <v>1400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1500</v>
-      </c>
-      <c r="T76" s="3">
-        <v>1300</v>
       </c>
       <c r="U76" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,89 +4664,95 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
-        <v>100</v>
-      </c>
       <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
@@ -4569,11 +4764,11 @@
         <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -4584,22 +4779,25 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
       <c r="S81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4642,7 +4841,7 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>100</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>100</v>
       </c>
       <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3">
-        <v>100</v>
-      </c>
       <c r="U89" s="3">
+        <v>100</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,19 +5277,20 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>10</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5084,28 +5305,28 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>100</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>100</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>10</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5264,11 +5494,11 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5564,10 +5810,10 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>-100</v>
       </c>
       <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
       <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMTY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMTY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>AMTY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,137 +665,145 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F8" s="3">
         <v>1200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1200</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>800</v>
       </c>
       <c r="H8" s="3">
         <v>1100</v>
       </c>
       <c r="I8" s="3">
+        <v>800</v>
+      </c>
+      <c r="J8" s="3">
         <v>1100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1000</v>
       </c>
       <c r="K8" s="3">
         <v>1100</v>
       </c>
       <c r="L8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N8" s="3">
         <v>900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>800</v>
-      </c>
-      <c r="O8" s="3">
-        <v>900</v>
-      </c>
-      <c r="P8" s="3">
-        <v>900</v>
       </c>
       <c r="Q8" s="3">
         <v>900</v>
@@ -804,51 +812,57 @@
         <v>900</v>
       </c>
       <c r="S8" s="3">
+        <v>900</v>
+      </c>
+      <c r="T8" s="3">
+        <v>900</v>
+      </c>
+      <c r="U8" s="3">
         <v>800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F9" s="3">
         <v>900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>700</v>
-      </c>
-      <c r="L9" s="3">
-        <v>600</v>
-      </c>
-      <c r="M9" s="3">
-        <v>600</v>
       </c>
       <c r="N9" s="3">
         <v>600</v>
@@ -857,7 +871,7 @@
         <v>600</v>
       </c>
       <c r="P9" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q9" s="3">
         <v>600</v>
@@ -875,48 +889,54 @@
         <v>600</v>
       </c>
       <c r="V9" s="3">
+        <v>700</v>
+      </c>
+      <c r="W9" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E10" s="3">
         <v>300</v>
       </c>
       <c r="F10" s="3">
+        <v>300</v>
+      </c>
+      <c r="G10" s="3">
+        <v>300</v>
+      </c>
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>200</v>
-      </c>
-      <c r="H10" s="3">
-        <v>300</v>
-      </c>
-      <c r="I10" s="3">
-        <v>300</v>
       </c>
       <c r="J10" s="3">
         <v>300</v>
       </c>
       <c r="K10" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L10" s="3">
         <v>300</v>
       </c>
       <c r="M10" s="3">
+        <v>400</v>
+      </c>
+      <c r="N10" s="3">
+        <v>300</v>
+      </c>
+      <c r="O10" s="3">
         <v>200</v>
-      </c>
-      <c r="N10" s="3">
-        <v>200</v>
-      </c>
-      <c r="O10" s="3">
-        <v>300</v>
       </c>
       <c r="P10" s="3">
         <v>200</v>
@@ -928,19 +948,25 @@
         <v>200</v>
       </c>
       <c r="S10" s="3">
+        <v>300</v>
+      </c>
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
+        <v>200</v>
+      </c>
+      <c r="V10" s="3">
         <v>400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="Q12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S12" s="3">
         <v>100</v>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>100</v>
+      </c>
+      <c r="X12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,22 +1121,28 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -1116,11 +1156,11 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1140,17 +1180,23 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,28 +1284,30 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>900</v>
       </c>
       <c r="H17" s="3">
         <v>1000</v>
       </c>
       <c r="I17" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J17" s="3">
         <v>1000</v>
@@ -1262,25 +1316,25 @@
         <v>1000</v>
       </c>
       <c r="L17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N17" s="3">
         <v>900</v>
-      </c>
-      <c r="M17" s="3">
-        <v>900</v>
-      </c>
-      <c r="N17" s="3">
-        <v>800</v>
       </c>
       <c r="O17" s="3">
         <v>900</v>
       </c>
       <c r="P17" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="Q17" s="3">
         <v>900</v>
       </c>
       <c r="R17" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="S17" s="3">
         <v>900</v>
@@ -1292,33 +1346,39 @@
         <v>900</v>
       </c>
       <c r="V17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W17" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K18" s="3">
         <v>100</v>
@@ -1327,14 +1387,14 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1342,22 +1402,28 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>100</v>
-      </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
+        <v>100</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1446,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,8 +1510,14 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,23 +1525,23 @@
         <v>100</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
       <c r="K21" s="3">
         <v>100</v>
       </c>
@@ -1475,42 +1549,48 @@
         <v>100</v>
       </c>
       <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
         <v>0</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>200</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1566,8 +1646,14 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1575,38 +1661,38 @@
         <v>100</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
@@ -1614,22 +1700,28 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
-        <v>100</v>
-      </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1850,14 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1761,38 +1865,38 @@
         <v>100</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
@@ -1800,22 +1904,28 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
-        <v>100</v>
-      </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1823,22 +1933,22 @@
         <v>100</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -1847,14 +1957,14 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
@@ -1862,22 +1972,28 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>100</v>
-      </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
+        <v>100</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2258,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,8 +2326,14 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2195,22 +2341,22 @@
         <v>100</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -2219,14 +2365,14 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
@@ -2234,22 +2380,28 @@
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>100</v>
-      </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
+        <v>100</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2462,14 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2319,22 +2477,22 @@
         <v>100</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -2343,14 +2501,14 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
@@ -2358,89 +2516,101 @@
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>100</v>
-      </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
+        <v>100</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2659,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>500</v>
+      </c>
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
-      </c>
-      <c r="L41" s="3">
-        <v>300</v>
-      </c>
-      <c r="M41" s="3">
-        <v>300</v>
       </c>
       <c r="N41" s="3">
         <v>300</v>
       </c>
       <c r="O41" s="3">
+        <v>300</v>
+      </c>
+      <c r="P41" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>300</v>
-      </c>
-      <c r="S41" s="3">
-        <v>300</v>
-      </c>
-      <c r="T41" s="3">
-        <v>500</v>
       </c>
       <c r="U41" s="3">
         <v>300</v>
       </c>
       <c r="V41" s="3">
+        <v>500</v>
+      </c>
+      <c r="W41" s="3">
+        <v>300</v>
+      </c>
+      <c r="X41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,16 +2791,22 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E43" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="F43" s="3">
         <v>300</v>
@@ -2629,60 +2815,66 @@
         <v>300</v>
       </c>
       <c r="H43" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
       </c>
       <c r="J43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
       </c>
       <c r="L43" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M43" s="3">
         <v>300</v>
       </c>
       <c r="N43" s="3">
+        <v>500</v>
+      </c>
+      <c r="O43" s="3">
+        <v>300</v>
+      </c>
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E44" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F44" s="3">
         <v>500</v>
@@ -2691,22 +2883,22 @@
         <v>500</v>
       </c>
       <c r="H44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I44" s="3">
         <v>500</v>
       </c>
       <c r="J44" s="3">
+        <v>600</v>
+      </c>
+      <c r="K44" s="3">
         <v>500</v>
-      </c>
-      <c r="K44" s="3">
-        <v>400</v>
       </c>
       <c r="L44" s="3">
         <v>500</v>
       </c>
       <c r="M44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N44" s="3">
         <v>500</v>
@@ -2721,34 +2913,40 @@
         <v>500</v>
       </c>
       <c r="R44" s="3">
+        <v>500</v>
+      </c>
+      <c r="S44" s="3">
+        <v>500</v>
+      </c>
+      <c r="T44" s="3">
         <v>600</v>
-      </c>
-      <c r="S44" s="3">
-        <v>600</v>
-      </c>
-      <c r="T44" s="3">
-        <v>500</v>
       </c>
       <c r="U44" s="3">
         <v>600</v>
       </c>
       <c r="V44" s="3">
+        <v>500</v>
+      </c>
+      <c r="W44" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
@@ -2797,43 +2995,49 @@
       <c r="V45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F46" s="3">
         <v>1800</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1600</v>
       </c>
       <c r="G46" s="3">
         <v>1500</v>
       </c>
       <c r="H46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1300</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1400</v>
       </c>
       <c r="L46" s="3">
         <v>1400</v>
       </c>
       <c r="M46" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="N46" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="O46" s="3">
         <v>1200</v>
@@ -2842,10 +3046,10 @@
         <v>1300</v>
       </c>
       <c r="Q46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R46" s="3">
         <v>1300</v>
-      </c>
-      <c r="R46" s="3">
-        <v>1400</v>
       </c>
       <c r="S46" s="3">
         <v>1300</v>
@@ -2854,13 +3058,19 @@
         <v>1400</v>
       </c>
       <c r="U46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W46" s="3">
         <v>1200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,46 +3131,52 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E48" s="3">
         <v>700</v>
       </c>
       <c r="F48" s="3">
+        <v>700</v>
+      </c>
+      <c r="G48" s="3">
+        <v>700</v>
+      </c>
+      <c r="H48" s="3">
         <v>800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>800</v>
-      </c>
-      <c r="H48" s="3">
-        <v>900</v>
-      </c>
-      <c r="I48" s="3">
-        <v>900</v>
       </c>
       <c r="J48" s="3">
         <v>900</v>
       </c>
       <c r="K48" s="3">
+        <v>900</v>
+      </c>
+      <c r="L48" s="3">
+        <v>900</v>
+      </c>
+      <c r="M48" s="3">
         <v>1000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>300</v>
-      </c>
-      <c r="N48" s="3">
-        <v>200</v>
-      </c>
-      <c r="O48" s="3">
-        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
@@ -2972,10 +3188,10 @@
         <v>200</v>
       </c>
       <c r="S48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U48" s="3">
         <v>300</v>
@@ -2983,8 +3199,14 @@
       <c r="V48" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>300</v>
+      </c>
+      <c r="X48" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3034,10 +3256,10 @@
         <v>100</v>
       </c>
       <c r="S49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U49" s="3">
         <v>200</v>
@@ -3045,8 +3267,14 @@
       <c r="V49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>200</v>
+      </c>
+      <c r="X49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3178,10 +3418,10 @@
         <v>200</v>
       </c>
       <c r="E52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
@@ -3202,10 +3442,10 @@
         <v>300</v>
       </c>
       <c r="M52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O52" s="3">
         <v>200</v>
@@ -3231,8 +3471,14 @@
       <c r="V52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>200</v>
+      </c>
+      <c r="X52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,43 +3539,49 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F54" s="3">
         <v>2800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2600</v>
-      </c>
-      <c r="F54" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G54" s="3">
-        <v>2800</v>
       </c>
       <c r="H54" s="3">
         <v>2700</v>
       </c>
       <c r="I54" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="J54" s="3">
         <v>2700</v>
       </c>
       <c r="K54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L54" s="3">
         <v>2700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N54" s="3">
         <v>2200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1800</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1900</v>
       </c>
       <c r="O54" s="3">
         <v>1800</v>
@@ -3338,25 +3590,31 @@
         <v>1900</v>
       </c>
       <c r="Q54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R54" s="3">
         <v>1900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T54" s="3">
         <v>2000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,31 +3663,33 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E57" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F57" s="3">
         <v>600</v>
       </c>
       <c r="G57" s="3">
+        <v>500</v>
+      </c>
+      <c r="H57" s="3">
+        <v>600</v>
+      </c>
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
-      </c>
-      <c r="I57" s="3">
-        <v>600</v>
-      </c>
-      <c r="J57" s="3">
-        <v>600</v>
       </c>
       <c r="K57" s="3">
         <v>600</v>
@@ -3436,37 +3698,43 @@
         <v>600</v>
       </c>
       <c r="M57" s="3">
+        <v>600</v>
+      </c>
+      <c r="N57" s="3">
+        <v>600</v>
+      </c>
+      <c r="O57" s="3">
         <v>500</v>
-      </c>
-      <c r="N57" s="3">
-        <v>500</v>
-      </c>
-      <c r="O57" s="3">
-        <v>400</v>
       </c>
       <c r="P57" s="3">
         <v>500</v>
       </c>
       <c r="Q57" s="3">
+        <v>400</v>
+      </c>
+      <c r="R57" s="3">
         <v>500</v>
-      </c>
-      <c r="R57" s="3">
-        <v>600</v>
       </c>
       <c r="S57" s="3">
         <v>500</v>
       </c>
       <c r="T57" s="3">
+        <v>600</v>
+      </c>
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
+        <v>500</v>
+      </c>
+      <c r="W57" s="3">
         <v>400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3477,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -3527,8 +3795,14 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3536,34 +3810,34 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3577,11 +3851,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>10</v>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>10</v>
@@ -3589,70 +3863,82 @@
       <c r="V59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>900</v>
+      </c>
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
-      </c>
-      <c r="H60" s="3">
-        <v>800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>700</v>
       </c>
       <c r="J60" s="3">
         <v>800</v>
       </c>
       <c r="K60" s="3">
+        <v>700</v>
+      </c>
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
+        <v>800</v>
+      </c>
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
-      </c>
-      <c r="N60" s="3">
-        <v>500</v>
-      </c>
-      <c r="O60" s="3">
-        <v>400</v>
       </c>
       <c r="P60" s="3">
         <v>500</v>
       </c>
       <c r="Q60" s="3">
+        <v>400</v>
+      </c>
+      <c r="R60" s="3">
         <v>500</v>
-      </c>
-      <c r="R60" s="3">
-        <v>600</v>
       </c>
       <c r="S60" s="3">
         <v>500</v>
       </c>
       <c r="T60" s="3">
+        <v>600</v>
+      </c>
+      <c r="U60" s="3">
         <v>500</v>
-      </c>
-      <c r="U60" s="3">
-        <v>400</v>
       </c>
       <c r="V60" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>400</v>
+      </c>
+      <c r="X60" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3666,14 +3952,14 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
+        <v>100</v>
+      </c>
+      <c r="H61" s="3">
+        <v>100</v>
+      </c>
+      <c r="I61" s="3">
         <v>200</v>
       </c>
-      <c r="H61" s="3">
-        <v>100</v>
-      </c>
-      <c r="I61" s="3">
-        <v>100</v>
-      </c>
       <c r="J61" s="3">
         <v>100</v>
       </c>
@@ -3713,8 +3999,14 @@
       <c r="V61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>100</v>
+      </c>
+      <c r="X61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3722,41 +4014,41 @@
         <v>300</v>
       </c>
       <c r="E62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G62" s="3">
         <v>400</v>
       </c>
       <c r="H62" s="3">
+        <v>400</v>
+      </c>
+      <c r="I62" s="3">
+        <v>400</v>
+      </c>
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>600</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3" t="s">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N62" s="3" t="s">
+      <c r="P62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
@@ -3775,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,8 +4271,14 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3970,52 +4286,52 @@
         <v>1200</v>
       </c>
       <c r="E66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G66" s="3">
         <v>1100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1500</v>
       </c>
       <c r="H66" s="3">
         <v>1400</v>
       </c>
       <c r="I66" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="J66" s="3">
         <v>1400</v>
       </c>
       <c r="K66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M66" s="3">
         <v>1500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>600</v>
-      </c>
-      <c r="N66" s="3">
-        <v>600</v>
-      </c>
-      <c r="O66" s="3">
-        <v>500</v>
       </c>
       <c r="P66" s="3">
         <v>600</v>
       </c>
       <c r="Q66" s="3">
+        <v>500</v>
+      </c>
+      <c r="R66" s="3">
         <v>600</v>
-      </c>
-      <c r="R66" s="3">
-        <v>700</v>
       </c>
       <c r="S66" s="3">
         <v>600</v>
       </c>
       <c r="T66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="U66" s="3">
         <v>600</v>
@@ -4023,8 +4339,14 @@
       <c r="V66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>600</v>
+      </c>
+      <c r="X66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,8 +4637,14 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4307,19 +4655,19 @@
         <v>-61300</v>
       </c>
       <c r="F72" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-61300</v>
+      </c>
+      <c r="H72" s="3">
         <v>-61500</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-61500</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-61400</v>
       </c>
       <c r="I72" s="3">
         <v>-61500</v>
       </c>
       <c r="J72" s="3">
-        <v>-61500</v>
+        <v>-61400</v>
       </c>
       <c r="K72" s="3">
         <v>-61500</v>
@@ -4328,16 +4676,16 @@
         <v>-61500</v>
       </c>
       <c r="M72" s="3">
-        <v>-61600</v>
+        <v>-61500</v>
       </c>
       <c r="N72" s="3">
         <v>-61500</v>
       </c>
       <c r="O72" s="3">
-        <v>-61400</v>
+        <v>-61600</v>
       </c>
       <c r="P72" s="3">
-        <v>-61400</v>
+        <v>-61500</v>
       </c>
       <c r="Q72" s="3">
         <v>-61400</v>
@@ -4346,19 +4694,25 @@
         <v>-61400</v>
       </c>
       <c r="S72" s="3">
-        <v>-61300</v>
+        <v>-61400</v>
       </c>
       <c r="T72" s="3">
-        <v>-61200</v>
+        <v>-61400</v>
       </c>
       <c r="U72" s="3">
         <v>-61300</v>
       </c>
       <c r="V72" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="W72" s="3">
         <v>-61300</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-61300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,46 +4909,52 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G76" s="3">
         <v>1500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1300</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1400</v>
       </c>
       <c r="I76" s="3">
         <v>1300</v>
       </c>
       <c r="J76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K76" s="3">
         <v>1300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M76" s="3">
         <v>1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1100</v>
-      </c>
-      <c r="N76" s="3">
-        <v>1300</v>
-      </c>
-      <c r="O76" s="3">
-        <v>1300</v>
       </c>
       <c r="P76" s="3">
         <v>1300</v>
@@ -4594,19 +4966,25 @@
         <v>1300</v>
       </c>
       <c r="S76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U76" s="3">
         <v>1400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +5045,87 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4743,22 +5133,22 @@
         <v>100</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
@@ -4767,14 +5157,14 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
@@ -4782,22 +5172,28 @@
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>100</v>
-      </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
+        <v>100</v>
+      </c>
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4844,10 +5242,10 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5620,14 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5201,61 +5635,67 @@
         <v>100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
       <c r="N89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>100</v>
+      </c>
+      <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>200</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R89" s="3">
-        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>-200</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V89" s="3">
         <v>200</v>
       </c>
-      <c r="U89" s="3">
-        <v>100</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
+        <v>100</v>
+      </c>
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,26 +5718,28 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="H91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -5308,40 +5750,46 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>100</v>
-      </c>
-      <c r="M91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>100</v>
+      </c>
+      <c r="O91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="P91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R91" s="3" t="s">
+      <c r="T91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,13 +5918,19 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5497,14 +5957,14 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -5526,8 +5986,14 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6284,14 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5813,13 +6305,13 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -5860,8 +6352,14 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6420,78 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0</v>
       </c>
       <c r="S102" s="3">
         <v>-200</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
-        <v>100</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
+        <v>100</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMTY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMTY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>AMTY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,148 +665,151 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E8" s="3">
         <v>1400</v>
       </c>
       <c r="F8" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="G8" s="3">
         <v>1200</v>
       </c>
       <c r="H8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I8" s="3">
         <v>1100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>800</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1100</v>
       </c>
       <c r="K8" s="3">
         <v>1100</v>
       </c>
       <c r="L8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M8" s="3">
         <v>1000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>900</v>
-      </c>
-      <c r="O8" s="3">
-        <v>800</v>
       </c>
       <c r="P8" s="3">
         <v>800</v>
       </c>
       <c r="Q8" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="R8" s="3">
         <v>900</v>
@@ -818,54 +821,57 @@
         <v>900</v>
       </c>
       <c r="U8" s="3">
+        <v>900</v>
+      </c>
+      <c r="V8" s="3">
         <v>800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1100</v>
-      </c>
-      <c r="F9" s="3">
-        <v>900</v>
       </c>
       <c r="G9" s="3">
         <v>900</v>
       </c>
       <c r="H9" s="3">
+        <v>900</v>
+      </c>
+      <c r="I9" s="3">
         <v>700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>600</v>
-      </c>
-      <c r="J9" s="3">
-        <v>800</v>
       </c>
       <c r="K9" s="3">
         <v>800</v>
       </c>
       <c r="L9" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M9" s="3">
         <v>700</v>
       </c>
       <c r="N9" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O9" s="3">
         <v>600</v>
@@ -877,28 +883,31 @@
         <v>600</v>
       </c>
       <c r="R9" s="3">
+        <v>600</v>
+      </c>
+      <c r="S9" s="3">
         <v>700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>700</v>
-      </c>
-      <c r="W9" s="3">
-        <v>600</v>
       </c>
       <c r="X9" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,7 +915,7 @@
         <v>400</v>
       </c>
       <c r="E10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F10" s="3">
         <v>300</v>
@@ -915,13 +924,13 @@
         <v>300</v>
       </c>
       <c r="H10" s="3">
+        <v>300</v>
+      </c>
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
-      </c>
-      <c r="J10" s="3">
-        <v>300</v>
       </c>
       <c r="K10" s="3">
         <v>300</v>
@@ -930,43 +939,46 @@
         <v>300</v>
       </c>
       <c r="M10" s="3">
+        <v>300</v>
+      </c>
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
-      </c>
-      <c r="O10" s="3">
-        <v>200</v>
       </c>
       <c r="P10" s="3">
         <v>200</v>
       </c>
       <c r="Q10" s="3">
+        <v>200</v>
+      </c>
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>300</v>
-      </c>
-      <c r="T10" s="3">
-        <v>200</v>
       </c>
       <c r="U10" s="3">
         <v>200</v>
       </c>
       <c r="V10" s="3">
+        <v>200</v>
+      </c>
+      <c r="W10" s="3">
         <v>400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T12" s="3">
         <v>100</v>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,25 +1143,28 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -1162,8 +1181,8 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1186,8 +1205,8 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,31 +1311,32 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1000</v>
       </c>
       <c r="H17" s="3">
         <v>1000</v>
       </c>
       <c r="I17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J17" s="3">
         <v>900</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1000</v>
       </c>
       <c r="K17" s="3">
         <v>1000</v>
@@ -1322,16 +1348,16 @@
         <v>1000</v>
       </c>
       <c r="N17" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="O17" s="3">
         <v>900</v>
       </c>
       <c r="P17" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q17" s="3">
         <v>800</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>900</v>
       </c>
       <c r="R17" s="3">
         <v>900</v>
@@ -1340,22 +1366,25 @@
         <v>900</v>
       </c>
       <c r="T17" s="3">
+        <v>900</v>
+      </c>
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1000</v>
-      </c>
-      <c r="W17" s="3">
-        <v>900</v>
       </c>
       <c r="X17" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,41 +1392,41 @@
         <v>100</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
       <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
       <c r="K18" s="3">
         <v>100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
@@ -1408,22 +1437,25 @@
         <v>0</v>
       </c>
       <c r="T18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
         <v>-100</v>
       </c>
       <c r="V18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="W18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1516,8 +1549,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,26 +1561,26 @@
         <v>100</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
       <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
       <c r="L21" s="3">
         <v>100</v>
       </c>
@@ -1555,45 +1591,48 @@
         <v>100</v>
       </c>
       <c r="O21" s="3">
+        <v>100</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
         <v>0</v>
       </c>
       <c r="R21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T21" s="3">
         <v>0</v>
       </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>200</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
       <c r="X21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1652,50 +1691,53 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>100</v>
       </c>
       <c r="O23" s="3">
+        <v>100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
@@ -1706,22 +1748,25 @@
         <v>0</v>
       </c>
       <c r="T23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
       </c>
       <c r="V23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,50 +1904,53 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
       <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>100</v>
       </c>
       <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
@@ -1910,48 +1961,51 @@
         <v>0</v>
       </c>
       <c r="T26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
       </c>
       <c r="V26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
@@ -1963,11 +2017,11 @@
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
@@ -1978,22 +2032,25 @@
         <v>0</v>
       </c>
       <c r="T27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
       </c>
       <c r="V27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2332,34 +2401,37 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
@@ -2371,11 +2443,11 @@
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
@@ -2386,22 +2458,25 @@
         <v>0</v>
       </c>
       <c r="T33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
         <v>-100</v>
       </c>
       <c r="V33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="W33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,34 +2543,37 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
@@ -2507,11 +2585,11 @@
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
@@ -2522,95 +2600,101 @@
         <v>0</v>
       </c>
       <c r="T35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
         <v>-100</v>
       </c>
       <c r="V35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="W35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2746,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2673,31 +2759,31 @@
         <v>500</v>
       </c>
       <c r="F41" s="3">
+        <v>500</v>
+      </c>
+      <c r="G41" s="3">
         <v>700</v>
-      </c>
-      <c r="G41" s="3">
-        <v>600</v>
       </c>
       <c r="H41" s="3">
         <v>600</v>
       </c>
       <c r="I41" s="3">
+        <v>600</v>
+      </c>
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
-      </c>
-      <c r="N41" s="3">
-        <v>300</v>
       </c>
       <c r="O41" s="3">
         <v>300</v>
@@ -2706,31 +2792,34 @@
         <v>300</v>
       </c>
       <c r="Q41" s="3">
+        <v>300</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="S41" s="3">
-        <v>100</v>
-      </c>
       <c r="T41" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>300</v>
       </c>
       <c r="V41" s="3">
+        <v>300</v>
+      </c>
+      <c r="W41" s="3">
         <v>500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,19 +2886,22 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>700</v>
-      </c>
-      <c r="F43" s="3">
-        <v>300</v>
       </c>
       <c r="G43" s="3">
         <v>300</v>
@@ -2821,10 +2913,10 @@
         <v>300</v>
       </c>
       <c r="J43" s="3">
+        <v>300</v>
+      </c>
+      <c r="K43" s="3">
         <v>400</v>
-      </c>
-      <c r="K43" s="3">
-        <v>300</v>
       </c>
       <c r="L43" s="3">
         <v>300</v>
@@ -2833,51 +2925,54 @@
         <v>300</v>
       </c>
       <c r="N43" s="3">
+        <v>300</v>
+      </c>
+      <c r="O43" s="3">
         <v>500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
-      </c>
-      <c r="P43" s="3">
-        <v>400</v>
       </c>
       <c r="Q43" s="3">
         <v>400</v>
       </c>
       <c r="R43" s="3">
+        <v>400</v>
+      </c>
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>400</v>
-      </c>
-      <c r="U43" s="3">
-        <v>300</v>
       </c>
       <c r="V43" s="3">
         <v>300</v>
       </c>
       <c r="W43" s="3">
+        <v>300</v>
+      </c>
+      <c r="X43" s="3">
         <v>200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E44" s="3">
         <v>700</v>
       </c>
       <c r="F44" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G44" s="3">
         <v>500</v>
@@ -2889,19 +2984,19 @@
         <v>500</v>
       </c>
       <c r="J44" s="3">
+        <v>500</v>
+      </c>
+      <c r="K44" s="3">
         <v>600</v>
-      </c>
-      <c r="K44" s="3">
-        <v>500</v>
       </c>
       <c r="L44" s="3">
         <v>500</v>
       </c>
       <c r="M44" s="3">
+        <v>500</v>
+      </c>
+      <c r="N44" s="3">
         <v>400</v>
-      </c>
-      <c r="N44" s="3">
-        <v>500</v>
       </c>
       <c r="O44" s="3">
         <v>500</v>
@@ -2919,22 +3014,25 @@
         <v>500</v>
       </c>
       <c r="T44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="U44" s="3">
         <v>600</v>
       </c>
       <c r="V44" s="3">
+        <v>600</v>
+      </c>
+      <c r="W44" s="3">
         <v>500</v>
-      </c>
-      <c r="W44" s="3">
-        <v>600</v>
       </c>
       <c r="X44" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2945,11 +3043,11 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
@@ -3001,8 +3099,11 @@
       <c r="X45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3010,28 +3111,28 @@
         <v>1900</v>
       </c>
       <c r="E46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F46" s="3">
         <v>2000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1600</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1500</v>
       </c>
       <c r="J46" s="3">
         <v>1500</v>
       </c>
       <c r="K46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L46" s="3">
         <v>1300</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1400</v>
       </c>
       <c r="M46" s="3">
         <v>1400</v>
@@ -3040,37 +3141,40 @@
         <v>1400</v>
       </c>
       <c r="O46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1200</v>
-      </c>
-      <c r="R46" s="3">
-        <v>1300</v>
       </c>
       <c r="S46" s="3">
         <v>1300</v>
       </c>
       <c r="T46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U46" s="3">
         <v>1400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,16 +3241,19 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
         <v>800</v>
-      </c>
-      <c r="E48" s="3">
-        <v>700</v>
       </c>
       <c r="F48" s="3">
         <v>700</v>
@@ -3155,13 +3262,13 @@
         <v>700</v>
       </c>
       <c r="H48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I48" s="3">
         <v>800</v>
       </c>
       <c r="J48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K48" s="3">
         <v>900</v>
@@ -3170,16 +3277,16 @@
         <v>900</v>
       </c>
       <c r="M48" s="3">
+        <v>900</v>
+      </c>
+      <c r="N48" s="3">
         <v>1000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>300</v>
-      </c>
-      <c r="P48" s="3">
-        <v>200</v>
       </c>
       <c r="Q48" s="3">
         <v>200</v>
@@ -3194,7 +3301,7 @@
         <v>200</v>
       </c>
       <c r="U48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V48" s="3">
         <v>300</v>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3262,7 +3372,7 @@
         <v>100</v>
       </c>
       <c r="U49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V49" s="3">
         <v>200</v>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3424,7 +3543,7 @@
         <v>200</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
@@ -3448,7 +3567,7 @@
         <v>300</v>
       </c>
       <c r="O52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P52" s="3">
         <v>200</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3667,11 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3557,64 +3682,67 @@
         <v>2900</v>
       </c>
       <c r="F54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G54" s="3">
         <v>2800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2600</v>
-      </c>
-      <c r="L54" s="3">
-        <v>2700</v>
       </c>
       <c r="M54" s="3">
         <v>2700</v>
       </c>
       <c r="N54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="O54" s="3">
         <v>2200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1800</v>
-      </c>
-      <c r="R54" s="3">
-        <v>1900</v>
       </c>
       <c r="S54" s="3">
         <v>1900</v>
       </c>
       <c r="T54" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="U54" s="3">
         <v>2000</v>
       </c>
       <c r="V54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W54" s="3">
         <v>2100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3674,25 +3804,25 @@
         <v>700</v>
       </c>
       <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>700</v>
       </c>
       <c r="J57" s="3">
         <v>700</v>
       </c>
       <c r="K57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L57" s="3">
         <v>600</v>
@@ -3704,37 +3834,40 @@
         <v>600</v>
       </c>
       <c r="O57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P57" s="3">
         <v>500</v>
       </c>
       <c r="Q57" s="3">
+        <v>500</v>
+      </c>
+      <c r="R57" s="3">
         <v>400</v>
-      </c>
-      <c r="R57" s="3">
-        <v>500</v>
       </c>
       <c r="S57" s="3">
         <v>500</v>
       </c>
       <c r="T57" s="3">
+        <v>500</v>
+      </c>
+      <c r="U57" s="3">
         <v>600</v>
-      </c>
-      <c r="U57" s="3">
-        <v>500</v>
       </c>
       <c r="V57" s="3">
         <v>500</v>
       </c>
       <c r="W57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="X57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3751,13 +3884,13 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3801,8 +3934,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3816,10 +3952,10 @@
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
@@ -3828,10 +3964,10 @@
         <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
@@ -3840,7 +3976,7 @@
         <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3857,8 +3993,8 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>10</v>
+      <c r="U59" s="3">
+        <v>0</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>10</v>
@@ -3869,8 +4005,11 @@
       <c r="X59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3881,64 +4020,67 @@
         <v>900</v>
       </c>
       <c r="F60" s="3">
+        <v>900</v>
+      </c>
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
-      </c>
-      <c r="H60" s="3">
-        <v>900</v>
       </c>
       <c r="I60" s="3">
         <v>900</v>
       </c>
       <c r="J60" s="3">
+        <v>900</v>
+      </c>
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
-      </c>
-      <c r="L60" s="3">
-        <v>800</v>
       </c>
       <c r="M60" s="3">
         <v>800</v>
       </c>
       <c r="N60" s="3">
+        <v>800</v>
+      </c>
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
-      </c>
-      <c r="R60" s="3">
-        <v>500</v>
       </c>
       <c r="S60" s="3">
         <v>500</v>
       </c>
       <c r="T60" s="3">
+        <v>500</v>
+      </c>
+      <c r="U60" s="3">
         <v>600</v>
-      </c>
-      <c r="U60" s="3">
-        <v>500</v>
       </c>
       <c r="V60" s="3">
         <v>500</v>
       </c>
       <c r="W60" s="3">
+        <v>500</v>
+      </c>
+      <c r="X60" s="3">
         <v>400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3958,11 +4100,11 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
+        <v>100</v>
+      </c>
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
-        <v>100</v>
-      </c>
       <c r="K61" s="3">
         <v>100</v>
       </c>
@@ -4005,13 +4147,16 @@
       <c r="X61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
@@ -4020,7 +4165,7 @@
         <v>300</v>
       </c>
       <c r="G62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H62" s="3">
         <v>400</v>
@@ -4029,28 +4174,28 @@
         <v>400</v>
       </c>
       <c r="J62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K62" s="3">
         <v>500</v>
       </c>
       <c r="L62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M62" s="3">
         <v>600</v>
       </c>
       <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>10</v>
+        <v>600</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,64 +4431,67 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1000</v>
-      </c>
-      <c r="O66" s="3">
-        <v>600</v>
       </c>
       <c r="P66" s="3">
         <v>600</v>
       </c>
       <c r="Q66" s="3">
+        <v>600</v>
+      </c>
+      <c r="R66" s="3">
         <v>500</v>
-      </c>
-      <c r="R66" s="3">
-        <v>600</v>
       </c>
       <c r="S66" s="3">
         <v>600</v>
       </c>
       <c r="T66" s="3">
+        <v>600</v>
+      </c>
+      <c r="U66" s="3">
         <v>700</v>
-      </c>
-      <c r="U66" s="3">
-        <v>600</v>
       </c>
       <c r="V66" s="3">
         <v>600</v>
@@ -4345,8 +4502,11 @@
       <c r="X66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,8 +4813,11 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4652,25 +4825,25 @@
         <v>-61200</v>
       </c>
       <c r="E72" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-61300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-61200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-61300</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-61500</v>
       </c>
       <c r="I72" s="3">
         <v>-61500</v>
       </c>
       <c r="J72" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-61400</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-61500</v>
       </c>
       <c r="L72" s="3">
         <v>-61500</v>
@@ -4682,13 +4855,13 @@
         <v>-61500</v>
       </c>
       <c r="O72" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="P72" s="3">
         <v>-61600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-61500</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-61400</v>
       </c>
       <c r="R72" s="3">
         <v>-61400</v>
@@ -4700,19 +4873,22 @@
         <v>-61400</v>
       </c>
       <c r="U72" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="V72" s="3">
         <v>-61300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-61200</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-61300</v>
       </c>
       <c r="X72" s="3">
         <v>-61300</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>-61300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,8 +5097,11 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4924,40 +5109,40 @@
         <v>1700</v>
       </c>
       <c r="E76" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F76" s="3">
         <v>1600</v>
       </c>
       <c r="G76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H76" s="3">
         <v>1500</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1300</v>
       </c>
       <c r="I76" s="3">
         <v>1300</v>
       </c>
       <c r="J76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K76" s="3">
         <v>1400</v>
-      </c>
-      <c r="K76" s="3">
-        <v>1300</v>
       </c>
       <c r="L76" s="3">
         <v>1300</v>
       </c>
       <c r="M76" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="N76" s="3">
         <v>1200</v>
       </c>
       <c r="O76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P76" s="3">
         <v>1100</v>
-      </c>
-      <c r="P76" s="3">
-        <v>1300</v>
       </c>
       <c r="Q76" s="3">
         <v>1300</v>
@@ -4972,19 +5157,22 @@
         <v>1300</v>
       </c>
       <c r="U76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V76" s="3">
         <v>1400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1500</v>
-      </c>
-      <c r="W76" s="3">
-        <v>1300</v>
       </c>
       <c r="X76" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,107 +5239,113 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
@@ -5163,11 +5357,11 @@
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
@@ -5178,22 +5372,25 @@
         <v>0</v>
       </c>
       <c r="T81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U81" s="3">
         <v>-100</v>
       </c>
       <c r="V81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="W81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5248,7 +5446,7 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5635,67 +5851,70 @@
         <v>100</v>
       </c>
       <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>100</v>
-      </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>100</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>100</v>
       </c>
       <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>200</v>
       </c>
-      <c r="W89" s="3">
-        <v>100</v>
-      </c>
       <c r="X89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5734,14 +5954,14 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>10</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -5756,28 +5976,28 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
-        <v>100</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>100</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>10</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,17 +6150,20 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -5963,11 +6192,11 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6311,10 +6556,10 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
       </c>
       <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
-        <v>100</v>
-      </c>
       <c r="X102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMTY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMTY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>AMTY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,158 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1500</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1400</v>
       </c>
       <c r="F8" s="3">
         <v>1400</v>
       </c>
       <c r="G8" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="H8" s="3">
         <v>1200</v>
       </c>
       <c r="I8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J8" s="3">
         <v>1100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1100</v>
       </c>
       <c r="L8" s="3">
         <v>1100</v>
       </c>
       <c r="M8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N8" s="3">
         <v>1000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>900</v>
-      </c>
-      <c r="P8" s="3">
-        <v>800</v>
       </c>
       <c r="Q8" s="3">
         <v>800</v>
       </c>
       <c r="R8" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="S8" s="3">
         <v>900</v>
@@ -824,57 +828,60 @@
         <v>900</v>
       </c>
       <c r="V8" s="3">
+        <v>900</v>
+      </c>
+      <c r="W8" s="3">
         <v>800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E9" s="3">
         <v>1100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>900</v>
       </c>
       <c r="H9" s="3">
         <v>900</v>
       </c>
       <c r="I9" s="3">
+        <v>900</v>
+      </c>
+      <c r="J9" s="3">
         <v>700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>600</v>
-      </c>
-      <c r="K9" s="3">
-        <v>800</v>
       </c>
       <c r="L9" s="3">
         <v>800</v>
       </c>
       <c r="M9" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N9" s="3">
         <v>700</v>
       </c>
       <c r="O9" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P9" s="3">
         <v>600</v>
@@ -886,39 +893,42 @@
         <v>600</v>
       </c>
       <c r="S9" s="3">
+        <v>600</v>
+      </c>
+      <c r="T9" s="3">
         <v>700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>700</v>
-      </c>
-      <c r="X9" s="3">
-        <v>600</v>
       </c>
       <c r="Y9" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E10" s="3">
         <v>400</v>
       </c>
       <c r="F10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G10" s="3">
         <v>300</v>
@@ -927,13 +937,13 @@
         <v>300</v>
       </c>
       <c r="I10" s="3">
+        <v>300</v>
+      </c>
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
-      </c>
-      <c r="K10" s="3">
-        <v>300</v>
       </c>
       <c r="L10" s="3">
         <v>300</v>
@@ -942,43 +952,46 @@
         <v>300</v>
       </c>
       <c r="N10" s="3">
+        <v>300</v>
+      </c>
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
-      </c>
-      <c r="P10" s="3">
-        <v>200</v>
       </c>
       <c r="Q10" s="3">
         <v>200</v>
       </c>
       <c r="R10" s="3">
+        <v>200</v>
+      </c>
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>300</v>
-      </c>
-      <c r="U10" s="3">
-        <v>200</v>
       </c>
       <c r="V10" s="3">
         <v>200</v>
       </c>
       <c r="W10" s="3">
+        <v>200</v>
+      </c>
+      <c r="X10" s="3">
         <v>400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1058,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U12" s="3">
         <v>100</v>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,28 +1163,31 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -1184,8 +1204,8 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1208,8 +1228,8 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>10</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,34 +1338,35 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3">
         <v>1400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1000</v>
       </c>
       <c r="I17" s="3">
         <v>1000</v>
       </c>
       <c r="J17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K17" s="3">
         <v>900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1000</v>
       </c>
       <c r="L17" s="3">
         <v>1000</v>
@@ -1351,16 +1378,16 @@
         <v>1000</v>
       </c>
       <c r="O17" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="P17" s="3">
         <v>900</v>
       </c>
       <c r="Q17" s="3">
+        <v>900</v>
+      </c>
+      <c r="R17" s="3">
         <v>800</v>
-      </c>
-      <c r="R17" s="3">
-        <v>900</v>
       </c>
       <c r="S17" s="3">
         <v>900</v>
@@ -1369,67 +1396,70 @@
         <v>900</v>
       </c>
       <c r="U17" s="3">
+        <v>900</v>
+      </c>
+      <c r="V17" s="3">
         <v>1000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1000</v>
-      </c>
-      <c r="X17" s="3">
-        <v>900</v>
       </c>
       <c r="Y17" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>100</v>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E18" s="3">
         <v>100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
       <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
       <c r="L18" s="3">
         <v>100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
@@ -1440,22 +1470,25 @@
         <v>0</v>
       </c>
       <c r="U18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V18" s="3">
         <v>-100</v>
       </c>
       <c r="W18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="X18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,13 +1514,14 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1552,38 +1586,41 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>100</v>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E21" s="3">
         <v>100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
       <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
       <c r="M21" s="3">
         <v>100</v>
       </c>
@@ -1594,48 +1631,51 @@
         <v>100</v>
       </c>
       <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
         <v>0</v>
       </c>
       <c r="S21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U21" s="3">
         <v>0</v>
       </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>200</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
       <c r="Y21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1694,53 +1734,56 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
       <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>100</v>
       </c>
       <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
@@ -1751,22 +1794,25 @@
         <v>0</v>
       </c>
       <c r="U23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3">
         <v>-100</v>
       </c>
       <c r="W23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="X23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,53 +1956,56 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
       <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>100</v>
       </c>
       <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
@@ -1964,51 +2016,54 @@
         <v>0</v>
       </c>
       <c r="U26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
         <v>-100</v>
       </c>
       <c r="W26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="X26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
@@ -2020,11 +2075,11 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
@@ -2035,22 +2090,25 @@
         <v>0</v>
       </c>
       <c r="U27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3">
         <v>-100</v>
       </c>
       <c r="W27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="X27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,13 +2400,16 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2404,37 +2474,40 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
       <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
@@ -2446,11 +2519,11 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
@@ -2461,22 +2534,25 @@
         <v>0</v>
       </c>
       <c r="U33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V33" s="3">
         <v>-100</v>
       </c>
       <c r="W33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="X33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,37 +2622,40 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
       <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
@@ -2588,11 +2667,11 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
@@ -2603,98 +2682,104 @@
         <v>0</v>
       </c>
       <c r="U35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
         <v>-100</v>
       </c>
       <c r="W35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="X35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,13 +2833,14 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E41" s="3">
         <v>500</v>
@@ -2762,31 +2849,31 @@
         <v>500</v>
       </c>
       <c r="G41" s="3">
+        <v>500</v>
+      </c>
+      <c r="H41" s="3">
         <v>700</v>
-      </c>
-      <c r="H41" s="3">
-        <v>600</v>
       </c>
       <c r="I41" s="3">
         <v>600</v>
       </c>
       <c r="J41" s="3">
+        <v>600</v>
+      </c>
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
-      </c>
-      <c r="O41" s="3">
-        <v>300</v>
       </c>
       <c r="P41" s="3">
         <v>300</v>
@@ -2795,31 +2882,34 @@
         <v>300</v>
       </c>
       <c r="R41" s="3">
+        <v>300</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
-        <v>100</v>
-      </c>
       <c r="U41" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>300</v>
       </c>
       <c r="W41" s="3">
+        <v>300</v>
+      </c>
+      <c r="X41" s="3">
         <v>500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2898,13 +2991,13 @@
         <v>300</v>
       </c>
       <c r="E43" s="3">
+        <v>300</v>
+      </c>
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>700</v>
-      </c>
-      <c r="G43" s="3">
-        <v>300</v>
       </c>
       <c r="H43" s="3">
         <v>300</v>
@@ -2916,10 +3009,10 @@
         <v>300</v>
       </c>
       <c r="K43" s="3">
+        <v>300</v>
+      </c>
+      <c r="L43" s="3">
         <v>400</v>
-      </c>
-      <c r="L43" s="3">
-        <v>300</v>
       </c>
       <c r="M43" s="3">
         <v>300</v>
@@ -2928,54 +3021,57 @@
         <v>300</v>
       </c>
       <c r="O43" s="3">
+        <v>300</v>
+      </c>
+      <c r="P43" s="3">
         <v>500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>400</v>
       </c>
       <c r="R43" s="3">
         <v>400</v>
       </c>
       <c r="S43" s="3">
+        <v>400</v>
+      </c>
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>400</v>
-      </c>
-      <c r="V43" s="3">
-        <v>300</v>
       </c>
       <c r="W43" s="3">
         <v>300</v>
       </c>
       <c r="X43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y43" s="3">
         <v>200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E44" s="3">
         <v>900</v>
-      </c>
-      <c r="E44" s="3">
-        <v>700</v>
       </c>
       <c r="F44" s="3">
         <v>700</v>
       </c>
       <c r="G44" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="H44" s="3">
         <v>500</v>
@@ -2987,19 +3083,19 @@
         <v>500</v>
       </c>
       <c r="K44" s="3">
+        <v>500</v>
+      </c>
+      <c r="L44" s="3">
         <v>600</v>
-      </c>
-      <c r="L44" s="3">
-        <v>500</v>
       </c>
       <c r="M44" s="3">
         <v>500</v>
       </c>
       <c r="N44" s="3">
+        <v>500</v>
+      </c>
+      <c r="O44" s="3">
         <v>400</v>
-      </c>
-      <c r="O44" s="3">
-        <v>500</v>
       </c>
       <c r="P44" s="3">
         <v>500</v>
@@ -3017,22 +3113,25 @@
         <v>500</v>
       </c>
       <c r="U44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="V44" s="3">
         <v>600</v>
       </c>
       <c r="W44" s="3">
+        <v>600</v>
+      </c>
+      <c r="X44" s="3">
         <v>500</v>
-      </c>
-      <c r="X44" s="3">
-        <v>600</v>
       </c>
       <c r="Y44" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3046,11 +3145,11 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
@@ -3102,40 +3201,43 @@
       <c r="Y45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="E46" s="3">
         <v>1900</v>
       </c>
       <c r="F46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G46" s="3">
         <v>2000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1600</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1500</v>
       </c>
       <c r="K46" s="3">
         <v>1500</v>
       </c>
       <c r="L46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M46" s="3">
         <v>1300</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1400</v>
       </c>
       <c r="N46" s="3">
         <v>1400</v>
@@ -3144,37 +3246,40 @@
         <v>1400</v>
       </c>
       <c r="P46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1200</v>
-      </c>
-      <c r="S46" s="3">
-        <v>1300</v>
       </c>
       <c r="T46" s="3">
         <v>1300</v>
       </c>
       <c r="U46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V46" s="3">
         <v>1400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,8 +3349,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3253,10 +3361,10 @@
         <v>700</v>
       </c>
       <c r="E48" s="3">
+        <v>700</v>
+      </c>
+      <c r="F48" s="3">
         <v>800</v>
-      </c>
-      <c r="F48" s="3">
-        <v>700</v>
       </c>
       <c r="G48" s="3">
         <v>700</v>
@@ -3265,13 +3373,13 @@
         <v>700</v>
       </c>
       <c r="I48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J48" s="3">
         <v>800</v>
       </c>
       <c r="K48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L48" s="3">
         <v>900</v>
@@ -3280,16 +3388,16 @@
         <v>900</v>
       </c>
       <c r="N48" s="3">
+        <v>900</v>
+      </c>
+      <c r="O48" s="3">
         <v>1000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>300</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>200</v>
       </c>
       <c r="R48" s="3">
         <v>200</v>
@@ -3304,7 +3412,7 @@
         <v>200</v>
       </c>
       <c r="V48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W48" s="3">
         <v>300</v>
@@ -3315,8 +3423,11 @@
       <c r="Y48" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3375,7 +3486,7 @@
         <v>100</v>
       </c>
       <c r="V49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W49" s="3">
         <v>200</v>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3546,7 +3666,7 @@
         <v>200</v>
       </c>
       <c r="H52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I52" s="3">
         <v>300</v>
@@ -3570,7 +3690,7 @@
         <v>300</v>
       </c>
       <c r="P52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q52" s="3">
         <v>200</v>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,13 +3793,16 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="E54" s="3">
         <v>2900</v>
@@ -3685,64 +3811,67 @@
         <v>2900</v>
       </c>
       <c r="G54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H54" s="3">
         <v>2800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2600</v>
-      </c>
-      <c r="M54" s="3">
-        <v>2700</v>
       </c>
       <c r="N54" s="3">
         <v>2700</v>
       </c>
       <c r="O54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P54" s="3">
         <v>2200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1800</v>
-      </c>
-      <c r="S54" s="3">
-        <v>1900</v>
       </c>
       <c r="T54" s="3">
         <v>1900</v>
       </c>
       <c r="U54" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="V54" s="3">
         <v>2000</v>
       </c>
       <c r="W54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="X54" s="3">
         <v>2100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,37 +3925,38 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E57" s="3">
         <v>700</v>
       </c>
       <c r="F57" s="3">
+        <v>700</v>
+      </c>
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
-      </c>
-      <c r="J57" s="3">
-        <v>700</v>
       </c>
       <c r="K57" s="3">
         <v>700</v>
       </c>
       <c r="L57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M57" s="3">
         <v>600</v>
@@ -3837,37 +3968,40 @@
         <v>600</v>
       </c>
       <c r="P57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q57" s="3">
         <v>500</v>
       </c>
       <c r="R57" s="3">
+        <v>500</v>
+      </c>
+      <c r="S57" s="3">
         <v>400</v>
-      </c>
-      <c r="S57" s="3">
-        <v>500</v>
       </c>
       <c r="T57" s="3">
         <v>500</v>
       </c>
       <c r="U57" s="3">
+        <v>500</v>
+      </c>
+      <c r="V57" s="3">
         <v>600</v>
-      </c>
-      <c r="V57" s="3">
-        <v>500</v>
       </c>
       <c r="W57" s="3">
         <v>500</v>
       </c>
       <c r="X57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Y57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3887,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3937,8 +4071,11 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3955,10 +4092,10 @@
         <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
@@ -3967,10 +4104,10 @@
         <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
@@ -3979,7 +4116,7 @@
         <v>200</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3996,8 +4133,8 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>10</v>
+      <c r="V59" s="3">
+        <v>0</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>10</v>
@@ -4008,13 +4145,16 @@
       <c r="Y59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E60" s="3">
         <v>900</v>
@@ -4023,64 +4163,67 @@
         <v>900</v>
       </c>
       <c r="G60" s="3">
+        <v>900</v>
+      </c>
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>900</v>
       </c>
       <c r="J60" s="3">
         <v>900</v>
       </c>
       <c r="K60" s="3">
+        <v>900</v>
+      </c>
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
-      </c>
-      <c r="M60" s="3">
-        <v>800</v>
       </c>
       <c r="N60" s="3">
         <v>800</v>
       </c>
       <c r="O60" s="3">
+        <v>800</v>
+      </c>
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
-      </c>
-      <c r="S60" s="3">
-        <v>500</v>
       </c>
       <c r="T60" s="3">
         <v>500</v>
       </c>
       <c r="U60" s="3">
+        <v>500</v>
+      </c>
+      <c r="V60" s="3">
         <v>600</v>
-      </c>
-      <c r="V60" s="3">
-        <v>500</v>
       </c>
       <c r="W60" s="3">
         <v>500</v>
       </c>
       <c r="X60" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y60" s="3">
         <v>400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4103,11 +4246,11 @@
         <v>100</v>
       </c>
       <c r="J61" s="3">
+        <v>100</v>
+      </c>
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3">
-        <v>100</v>
-      </c>
       <c r="L61" s="3">
         <v>100</v>
       </c>
@@ -4150,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4159,7 +4305,7 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
@@ -4168,7 +4314,7 @@
         <v>300</v>
       </c>
       <c r="H62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I62" s="3">
         <v>400</v>
@@ -4177,28 +4323,28 @@
         <v>400</v>
       </c>
       <c r="K62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L62" s="3">
         <v>500</v>
       </c>
       <c r="M62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N62" s="3">
         <v>600</v>
       </c>
       <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>10</v>
+        <v>600</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,67 +4589,70 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
-      </c>
-      <c r="P66" s="3">
-        <v>600</v>
       </c>
       <c r="Q66" s="3">
         <v>600</v>
       </c>
       <c r="R66" s="3">
+        <v>600</v>
+      </c>
+      <c r="S66" s="3">
         <v>500</v>
-      </c>
-      <c r="S66" s="3">
-        <v>600</v>
       </c>
       <c r="T66" s="3">
         <v>600</v>
       </c>
       <c r="U66" s="3">
+        <v>600</v>
+      </c>
+      <c r="V66" s="3">
         <v>700</v>
-      </c>
-      <c r="V66" s="3">
-        <v>600</v>
       </c>
       <c r="W66" s="3">
         <v>600</v>
@@ -4505,8 +4663,11 @@
       <c r="Y66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,37 +4987,40 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-61200</v>
+        <v>-60900</v>
       </c>
       <c r="E72" s="3">
         <v>-61200</v>
       </c>
       <c r="F72" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="G72" s="3">
         <v>-61300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-61200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-61300</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-61500</v>
       </c>
       <c r="J72" s="3">
         <v>-61500</v>
       </c>
       <c r="K72" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="L72" s="3">
         <v>-61400</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-61500</v>
       </c>
       <c r="M72" s="3">
         <v>-61500</v>
@@ -4858,13 +5032,13 @@
         <v>-61500</v>
       </c>
       <c r="P72" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-61600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-61500</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-61400</v>
       </c>
       <c r="S72" s="3">
         <v>-61400</v>
@@ -4876,19 +5050,22 @@
         <v>-61400</v>
       </c>
       <c r="V72" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="W72" s="3">
         <v>-61300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-61200</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-61300</v>
       </c>
       <c r="Y72" s="3">
         <v>-61300</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>-61300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,52 +5283,55 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="E76" s="3">
         <v>1700</v>
       </c>
       <c r="F76" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G76" s="3">
         <v>1600</v>
       </c>
       <c r="H76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I76" s="3">
         <v>1500</v>
-      </c>
-      <c r="I76" s="3">
-        <v>1300</v>
       </c>
       <c r="J76" s="3">
         <v>1300</v>
       </c>
       <c r="K76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L76" s="3">
         <v>1400</v>
-      </c>
-      <c r="L76" s="3">
-        <v>1300</v>
       </c>
       <c r="M76" s="3">
         <v>1300</v>
       </c>
       <c r="N76" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="O76" s="3">
         <v>1200</v>
       </c>
       <c r="P76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q76" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>1300</v>
       </c>
       <c r="R76" s="3">
         <v>1300</v>
@@ -5160,19 +5346,22 @@
         <v>1300</v>
       </c>
       <c r="V76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W76" s="3">
         <v>1400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1500</v>
-      </c>
-      <c r="X76" s="3">
-        <v>1300</v>
       </c>
       <c r="Y76" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,113 +5431,119 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
       <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
@@ -5360,11 +5555,11 @@
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
@@ -5375,22 +5570,25 @@
         <v>0</v>
       </c>
       <c r="U81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V81" s="3">
         <v>-100</v>
       </c>
       <c r="W81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="X81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5449,7 +5648,7 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>100</v>
       </c>
       <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>100</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>100</v>
       </c>
       <c r="R89" s="3">
+        <v>100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>200</v>
       </c>
-      <c r="X89" s="3">
-        <v>100</v>
-      </c>
       <c r="Y89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5957,14 +6178,14 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>10</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5979,28 +6200,28 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
-        <v>100</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>100</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>10</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6162,11 +6392,11 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -6195,11 +6425,11 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6559,10 +6805,10 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -6606,8 +6852,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
       </c>
       <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
-        <v>100</v>
-      </c>
       <c r="Y102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMTY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMTY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>AMTY</t>
   </si>
@@ -1344,8 +1344,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
+      <c r="D17" s="3">
+        <v>1500</v>
       </c>
       <c r="E17" s="3">
         <v>1400</v>
@@ -1418,8 +1418,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
+      <c r="D18" s="3">
+        <v>200</v>
       </c>
       <c r="E18" s="3">
         <v>100</v>
@@ -1520,8 +1520,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1594,8 +1594,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
+      <c r="D21" s="3">
+        <v>300</v>
       </c>
       <c r="E21" s="3">
         <v>100</v>
@@ -1742,8 +1742,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>10</v>
+      <c r="D23" s="3">
+        <v>300</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1964,8 +1964,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>10</v>
+      <c r="D26" s="3">
+        <v>300</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -2038,8 +2038,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>10</v>
+      <c r="D27" s="3">
+        <v>300</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2408,8 +2408,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>10</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2482,8 +2482,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>10</v>
+      <c r="D33" s="3">
+        <v>300</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2630,8 +2630,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>10</v>
+      <c r="D35" s="3">
+        <v>300</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -5518,8 +5518,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>10</v>
+      <c r="D81" s="3">
+        <v>300</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/AMTY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMTY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>AMTY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,161 +665,165 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1500</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1400</v>
       </c>
       <c r="G8" s="3">
         <v>1400</v>
       </c>
       <c r="H8" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="I8" s="3">
         <v>1200</v>
       </c>
       <c r="J8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>800</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1100</v>
       </c>
       <c r="M8" s="3">
         <v>1100</v>
       </c>
       <c r="N8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O8" s="3">
         <v>1000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>900</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>800</v>
       </c>
       <c r="R8" s="3">
         <v>800</v>
       </c>
       <c r="S8" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T8" s="3">
         <v>900</v>
@@ -831,60 +835,63 @@
         <v>900</v>
       </c>
       <c r="W8" s="3">
+        <v>900</v>
+      </c>
+      <c r="X8" s="3">
         <v>800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E9" s="3">
         <v>1200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>900</v>
       </c>
       <c r="I9" s="3">
         <v>900</v>
       </c>
       <c r="J9" s="3">
+        <v>900</v>
+      </c>
+      <c r="K9" s="3">
         <v>700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>600</v>
-      </c>
-      <c r="L9" s="3">
-        <v>800</v>
       </c>
       <c r="M9" s="3">
         <v>800</v>
       </c>
       <c r="N9" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O9" s="3">
         <v>700</v>
       </c>
       <c r="P9" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q9" s="3">
         <v>600</v>
@@ -896,42 +903,45 @@
         <v>600</v>
       </c>
       <c r="T9" s="3">
+        <v>600</v>
+      </c>
+      <c r="U9" s="3">
         <v>700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>700</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>600</v>
       </c>
       <c r="Z9" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
-      </c>
-      <c r="E10" s="3">
-        <v>400</v>
       </c>
       <c r="F10" s="3">
         <v>400</v>
       </c>
       <c r="G10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
@@ -940,13 +950,13 @@
         <v>300</v>
       </c>
       <c r="J10" s="3">
+        <v>300</v>
+      </c>
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>200</v>
-      </c>
-      <c r="L10" s="3">
-        <v>300</v>
       </c>
       <c r="M10" s="3">
         <v>300</v>
@@ -955,43 +965,46 @@
         <v>300</v>
       </c>
       <c r="O10" s="3">
+        <v>300</v>
+      </c>
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>200</v>
       </c>
       <c r="R10" s="3">
         <v>200</v>
       </c>
       <c r="S10" s="3">
+        <v>200</v>
+      </c>
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>300</v>
-      </c>
-      <c r="V10" s="3">
-        <v>200</v>
       </c>
       <c r="W10" s="3">
         <v>200</v>
       </c>
       <c r="X10" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y10" s="3">
         <v>400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V12" s="3">
         <v>100</v>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1177,20 +1197,20 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1207,8 +1227,8 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1231,8 +1251,8 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>10</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>10</v>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,37 +1365,38 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1000</v>
       </c>
       <c r="J17" s="3">
         <v>1000</v>
       </c>
       <c r="K17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L17" s="3">
         <v>900</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1000</v>
       </c>
       <c r="M17" s="3">
         <v>1000</v>
@@ -1381,16 +1408,16 @@
         <v>1000</v>
       </c>
       <c r="P17" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="Q17" s="3">
         <v>900</v>
       </c>
       <c r="R17" s="3">
+        <v>900</v>
+      </c>
+      <c r="S17" s="3">
         <v>800</v>
-      </c>
-      <c r="S17" s="3">
-        <v>900</v>
       </c>
       <c r="T17" s="3">
         <v>900</v>
@@ -1399,70 +1426,73 @@
         <v>900</v>
       </c>
       <c r="V17" s="3">
+        <v>900</v>
+      </c>
+      <c r="W17" s="3">
         <v>1000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>900</v>
       </c>
       <c r="Z17" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
       <c r="F18" s="3">
         <v>100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
       <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
       <c r="M18" s="3">
         <v>100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
@@ -1473,22 +1503,25 @@
         <v>0</v>
       </c>
       <c r="V18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W18" s="3">
         <v>-100</v>
       </c>
       <c r="X18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,13 +1548,14 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1589,41 +1623,44 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
       <c r="F21" s="3">
         <v>100</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
       <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
       <c r="N21" s="3">
         <v>100</v>
       </c>
@@ -1634,51 +1671,54 @@
         <v>100</v>
       </c>
       <c r="Q21" s="3">
+        <v>100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
         <v>0</v>
       </c>
       <c r="T21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V21" s="3">
         <v>0</v>
       </c>
       <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>200</v>
       </c>
-      <c r="Y21" s="3">
-        <v>0</v>
-      </c>
       <c r="Z21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1737,56 +1777,59 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
       <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>100</v>
       </c>
       <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
@@ -1797,22 +1840,25 @@
         <v>0</v>
       </c>
       <c r="V23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W23" s="3">
         <v>-100</v>
       </c>
       <c r="X23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,56 +2008,59 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
       <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>100</v>
       </c>
       <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
@@ -2019,54 +2071,57 @@
         <v>0</v>
       </c>
       <c r="V26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W26" s="3">
         <v>-100</v>
       </c>
       <c r="X26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
@@ -2078,11 +2133,11 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
@@ -2093,22 +2148,25 @@
         <v>0</v>
       </c>
       <c r="V27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W27" s="3">
         <v>-100</v>
       </c>
       <c r="X27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,13 +2470,16 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2477,40 +2547,43 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
@@ -2522,11 +2595,11 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
@@ -2537,22 +2610,25 @@
         <v>0</v>
       </c>
       <c r="V33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W33" s="3">
         <v>-100</v>
       </c>
       <c r="X33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,40 +2701,43 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
@@ -2670,11 +2749,11 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
@@ -2685,101 +2764,107 @@
         <v>0</v>
       </c>
       <c r="V35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W35" s="3">
         <v>-100</v>
       </c>
       <c r="X35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,16 +2920,17 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
-      </c>
-      <c r="E41" s="3">
-        <v>500</v>
       </c>
       <c r="F41" s="3">
         <v>500</v>
@@ -2852,31 +2939,31 @@
         <v>500</v>
       </c>
       <c r="H41" s="3">
+        <v>500</v>
+      </c>
+      <c r="I41" s="3">
         <v>700</v>
-      </c>
-      <c r="I41" s="3">
-        <v>600</v>
       </c>
       <c r="J41" s="3">
         <v>600</v>
       </c>
       <c r="K41" s="3">
+        <v>600</v>
+      </c>
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
-      </c>
-      <c r="P41" s="3">
-        <v>300</v>
       </c>
       <c r="Q41" s="3">
         <v>300</v>
@@ -2885,31 +2972,34 @@
         <v>300</v>
       </c>
       <c r="S41" s="3">
+        <v>300</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="U41" s="3">
-        <v>100</v>
-      </c>
       <c r="V41" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
         <v>300</v>
       </c>
       <c r="X41" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y41" s="3">
         <v>500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,25 +3072,28 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
       </c>
       <c r="F43" s="3">
+        <v>300</v>
+      </c>
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>700</v>
-      </c>
-      <c r="H43" s="3">
-        <v>300</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
@@ -3012,10 +3105,10 @@
         <v>300</v>
       </c>
       <c r="L43" s="3">
+        <v>300</v>
+      </c>
+      <c r="M43" s="3">
         <v>400</v>
-      </c>
-      <c r="M43" s="3">
-        <v>300</v>
       </c>
       <c r="N43" s="3">
         <v>300</v>
@@ -3024,57 +3117,60 @@
         <v>300</v>
       </c>
       <c r="P43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q43" s="3">
         <v>500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>300</v>
-      </c>
-      <c r="R43" s="3">
-        <v>400</v>
       </c>
       <c r="S43" s="3">
         <v>400</v>
       </c>
       <c r="T43" s="3">
+        <v>400</v>
+      </c>
+      <c r="U43" s="3">
         <v>300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>400</v>
-      </c>
-      <c r="W43" s="3">
-        <v>300</v>
       </c>
       <c r="X43" s="3">
         <v>300</v>
       </c>
       <c r="Y43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z43" s="3">
         <v>200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>900</v>
+      </c>
+      <c r="E44" s="3">
         <v>1100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>900</v>
-      </c>
-      <c r="F44" s="3">
-        <v>700</v>
       </c>
       <c r="G44" s="3">
         <v>700</v>
       </c>
       <c r="H44" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="I44" s="3">
         <v>500</v>
@@ -3086,19 +3182,19 @@
         <v>500</v>
       </c>
       <c r="L44" s="3">
+        <v>500</v>
+      </c>
+      <c r="M44" s="3">
         <v>600</v>
-      </c>
-      <c r="M44" s="3">
-        <v>500</v>
       </c>
       <c r="N44" s="3">
         <v>500</v>
       </c>
       <c r="O44" s="3">
+        <v>500</v>
+      </c>
+      <c r="P44" s="3">
         <v>400</v>
-      </c>
-      <c r="P44" s="3">
-        <v>500</v>
       </c>
       <c r="Q44" s="3">
         <v>500</v>
@@ -3116,22 +3212,25 @@
         <v>500</v>
       </c>
       <c r="V44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="W44" s="3">
         <v>600</v>
       </c>
       <c r="X44" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y44" s="3">
         <v>500</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>600</v>
       </c>
       <c r="Z44" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3148,11 +3247,11 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
-        <v>100</v>
-      </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
@@ -3204,43 +3303,46 @@
       <c r="Z45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E46" s="3">
         <v>2100</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1900</v>
       </c>
       <c r="F46" s="3">
         <v>1900</v>
       </c>
       <c r="G46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H46" s="3">
         <v>2000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1600</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1500</v>
       </c>
       <c r="L46" s="3">
         <v>1500</v>
       </c>
       <c r="M46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N46" s="3">
         <v>1300</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1400</v>
       </c>
       <c r="O46" s="3">
         <v>1400</v>
@@ -3249,37 +3351,40 @@
         <v>1400</v>
       </c>
       <c r="Q46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R46" s="3">
         <v>1200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1200</v>
-      </c>
-      <c r="T46" s="3">
-        <v>1300</v>
       </c>
       <c r="U46" s="3">
         <v>1300</v>
       </c>
       <c r="V46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W46" s="3">
         <v>1400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,22 +3457,25 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
         <v>700</v>
       </c>
       <c r="F48" s="3">
+        <v>700</v>
+      </c>
+      <c r="G48" s="3">
         <v>800</v>
-      </c>
-      <c r="G48" s="3">
-        <v>700</v>
       </c>
       <c r="H48" s="3">
         <v>700</v>
@@ -3376,13 +3484,13 @@
         <v>700</v>
       </c>
       <c r="J48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K48" s="3">
         <v>800</v>
       </c>
       <c r="L48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M48" s="3">
         <v>900</v>
@@ -3391,16 +3499,16 @@
         <v>900</v>
       </c>
       <c r="O48" s="3">
+        <v>900</v>
+      </c>
+      <c r="P48" s="3">
         <v>1000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>300</v>
-      </c>
-      <c r="R48" s="3">
-        <v>200</v>
       </c>
       <c r="S48" s="3">
         <v>200</v>
@@ -3415,7 +3523,7 @@
         <v>200</v>
       </c>
       <c r="W48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X48" s="3">
         <v>300</v>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3489,7 +3600,7 @@
         <v>100</v>
       </c>
       <c r="W49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X49" s="3">
         <v>200</v>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3669,7 +3789,7 @@
         <v>200</v>
       </c>
       <c r="I52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
@@ -3693,7 +3813,7 @@
         <v>300</v>
       </c>
       <c r="Q52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R52" s="3">
         <v>200</v>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,16 +3919,19 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E54" s="3">
         <v>3100</v>
-      </c>
-      <c r="E54" s="3">
-        <v>2900</v>
       </c>
       <c r="F54" s="3">
         <v>2900</v>
@@ -3814,64 +3940,67 @@
         <v>2900</v>
       </c>
       <c r="H54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I54" s="3">
         <v>2800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2600</v>
-      </c>
-      <c r="N54" s="3">
-        <v>2700</v>
       </c>
       <c r="O54" s="3">
         <v>2700</v>
       </c>
       <c r="P54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q54" s="3">
         <v>2200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1800</v>
-      </c>
-      <c r="T54" s="3">
-        <v>1900</v>
       </c>
       <c r="U54" s="3">
         <v>1900</v>
       </c>
       <c r="V54" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="W54" s="3">
         <v>2000</v>
       </c>
       <c r="X54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Y54" s="3">
         <v>2100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,40 +4056,41 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>700</v>
       </c>
       <c r="F57" s="3">
         <v>700</v>
       </c>
       <c r="G57" s="3">
+        <v>700</v>
+      </c>
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
-      </c>
-      <c r="K57" s="3">
-        <v>700</v>
       </c>
       <c r="L57" s="3">
         <v>700</v>
       </c>
       <c r="M57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N57" s="3">
         <v>600</v>
@@ -3971,37 +4102,40 @@
         <v>600</v>
       </c>
       <c r="Q57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R57" s="3">
         <v>500</v>
       </c>
       <c r="S57" s="3">
+        <v>500</v>
+      </c>
+      <c r="T57" s="3">
         <v>400</v>
-      </c>
-      <c r="T57" s="3">
-        <v>500</v>
       </c>
       <c r="U57" s="3">
         <v>500</v>
       </c>
       <c r="V57" s="3">
+        <v>500</v>
+      </c>
+      <c r="W57" s="3">
         <v>600</v>
-      </c>
-      <c r="W57" s="3">
-        <v>500</v>
       </c>
       <c r="X57" s="3">
         <v>500</v>
       </c>
       <c r="Y57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Z57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4024,13 +4158,13 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -4074,13 +4208,16 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
@@ -4095,10 +4232,10 @@
         <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
@@ -4107,10 +4244,10 @@
         <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
@@ -4119,7 +4256,7 @@
         <v>200</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -4136,8 +4273,8 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>10</v>
+      <c r="W59" s="3">
+        <v>0</v>
       </c>
       <c r="X59" s="3" t="s">
         <v>10</v>
@@ -4148,16 +4285,19 @@
       <c r="Z59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
-      </c>
-      <c r="E60" s="3">
-        <v>900</v>
       </c>
       <c r="F60" s="3">
         <v>900</v>
@@ -4166,64 +4306,67 @@
         <v>900</v>
       </c>
       <c r="H60" s="3">
+        <v>900</v>
+      </c>
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
-      </c>
-      <c r="J60" s="3">
-        <v>900</v>
       </c>
       <c r="K60" s="3">
         <v>900</v>
       </c>
       <c r="L60" s="3">
+        <v>900</v>
+      </c>
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
-      </c>
-      <c r="N60" s="3">
-        <v>800</v>
       </c>
       <c r="O60" s="3">
         <v>800</v>
       </c>
       <c r="P60" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>400</v>
-      </c>
-      <c r="T60" s="3">
-        <v>500</v>
       </c>
       <c r="U60" s="3">
         <v>500</v>
       </c>
       <c r="V60" s="3">
+        <v>500</v>
+      </c>
+      <c r="W60" s="3">
         <v>600</v>
-      </c>
-      <c r="W60" s="3">
-        <v>500</v>
       </c>
       <c r="X60" s="3">
         <v>500</v>
       </c>
       <c r="Y60" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z60" s="3">
         <v>400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4249,11 +4392,11 @@
         <v>100</v>
       </c>
       <c r="K61" s="3">
+        <v>100</v>
+      </c>
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="L61" s="3">
-        <v>100</v>
-      </c>
       <c r="M61" s="3">
         <v>100</v>
       </c>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4308,7 +4454,7 @@
         <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
@@ -4317,7 +4463,7 @@
         <v>300</v>
       </c>
       <c r="I62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J62" s="3">
         <v>400</v>
@@ -4326,28 +4472,28 @@
         <v>400</v>
       </c>
       <c r="L62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M62" s="3">
         <v>500</v>
       </c>
       <c r="N62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O62" s="3">
         <v>600</v>
       </c>
       <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>10</v>
+        <v>600</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,70 +4747,73 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>600</v>
       </c>
       <c r="R66" s="3">
         <v>600</v>
       </c>
       <c r="S66" s="3">
+        <v>600</v>
+      </c>
+      <c r="T66" s="3">
         <v>500</v>
-      </c>
-      <c r="T66" s="3">
-        <v>600</v>
       </c>
       <c r="U66" s="3">
         <v>600</v>
       </c>
       <c r="V66" s="3">
+        <v>600</v>
+      </c>
+      <c r="W66" s="3">
         <v>700</v>
-      </c>
-      <c r="W66" s="3">
-        <v>600</v>
       </c>
       <c r="X66" s="3">
         <v>600</v>
@@ -4666,8 +4824,11 @@
       <c r="Z66" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,40 +5161,43 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-60800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-60900</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-61200</v>
       </c>
       <c r="F72" s="3">
         <v>-61200</v>
       </c>
       <c r="G72" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="H72" s="3">
         <v>-61300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-61200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-61300</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-61500</v>
       </c>
       <c r="K72" s="3">
         <v>-61500</v>
       </c>
       <c r="L72" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="M72" s="3">
         <v>-61400</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-61500</v>
       </c>
       <c r="N72" s="3">
         <v>-61500</v>
@@ -5035,13 +5209,13 @@
         <v>-61500</v>
       </c>
       <c r="Q72" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="R72" s="3">
         <v>-61600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-61500</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-61400</v>
       </c>
       <c r="T72" s="3">
         <v>-61400</v>
@@ -5053,19 +5227,22 @@
         <v>-61400</v>
       </c>
       <c r="W72" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="X72" s="3">
         <v>-61300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-61200</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>-61300</v>
       </c>
       <c r="Z72" s="3">
         <v>-61300</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3">
+        <v>-61300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,55 +5469,58 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E76" s="3">
         <v>2000</v>
-      </c>
-      <c r="E76" s="3">
-        <v>1700</v>
       </c>
       <c r="F76" s="3">
         <v>1700</v>
       </c>
       <c r="G76" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="H76" s="3">
         <v>1600</v>
       </c>
       <c r="I76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J76" s="3">
         <v>1500</v>
-      </c>
-      <c r="J76" s="3">
-        <v>1300</v>
       </c>
       <c r="K76" s="3">
         <v>1300</v>
       </c>
       <c r="L76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M76" s="3">
         <v>1400</v>
-      </c>
-      <c r="M76" s="3">
-        <v>1300</v>
       </c>
       <c r="N76" s="3">
         <v>1300</v>
       </c>
       <c r="O76" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="P76" s="3">
         <v>1200</v>
       </c>
       <c r="Q76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R76" s="3">
         <v>1100</v>
-      </c>
-      <c r="R76" s="3">
-        <v>1300</v>
       </c>
       <c r="S76" s="3">
         <v>1300</v>
@@ -5349,19 +5535,22 @@
         <v>1300</v>
       </c>
       <c r="W76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X76" s="3">
         <v>1400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1500</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>1300</v>
       </c>
       <c r="Z76" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,119 +5623,125 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
@@ -5558,11 +5753,11 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
@@ -5573,22 +5768,25 @@
         <v>0</v>
       </c>
       <c r="V81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W81" s="3">
         <v>-100</v>
       </c>
       <c r="X81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5651,7 +5850,7 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>100</v>
       </c>
       <c r="G89" s="3">
+        <v>100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>100</v>
-      </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>100</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>100</v>
       </c>
       <c r="S89" s="3">
+        <v>100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>200</v>
       </c>
-      <c r="Y89" s="3">
-        <v>100</v>
-      </c>
       <c r="Z89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6181,14 +6402,14 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>10</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -6203,28 +6424,28 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>100</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>10</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6395,11 +6625,11 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -6428,11 +6658,11 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6808,10 +7054,10 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -6855,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>-100</v>
       </c>
       <c r="O102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
-      <c r="Y102" s="3">
-        <v>100</v>
-      </c>
       <c r="Z102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMTY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMTY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>AMTY</t>
   </si>
@@ -1371,8 +1371,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
+      <c r="D17" s="3">
+        <v>1900</v>
       </c>
       <c r="E17" s="3">
         <v>1500</v>
@@ -1448,8 +1448,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
+      <c r="D18" s="3">
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>200</v>
@@ -1554,8 +1554,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1631,8 +1631,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
+      <c r="D21" s="3">
+        <v>100</v>
       </c>
       <c r="E21" s="3">
         <v>300</v>
@@ -1708,8 +1708,8 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1785,8 +1785,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>10</v>
+      <c r="D23" s="3">
+        <v>100</v>
       </c>
       <c r="E23" s="3">
         <v>300</v>
@@ -2016,8 +2016,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>10</v>
+      <c r="D26" s="3">
+        <v>100</v>
       </c>
       <c r="E26" s="3">
         <v>300</v>
@@ -2093,8 +2093,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>10</v>
+      <c r="D27" s="3">
+        <v>100</v>
       </c>
       <c r="E27" s="3">
         <v>300</v>
@@ -2478,8 +2478,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>10</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2555,8 +2555,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>10</v>
+      <c r="D33" s="3">
+        <v>100</v>
       </c>
       <c r="E33" s="3">
         <v>300</v>
@@ -2709,8 +2709,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>10</v>
+      <c r="D35" s="3">
+        <v>100</v>
       </c>
       <c r="E35" s="3">
         <v>300</v>
@@ -5713,8 +5713,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>10</v>
+      <c r="D81" s="3">
+        <v>100</v>
       </c>
       <c r="E81" s="3">
         <v>300</v>
@@ -7187,7 +7187,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-300</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/AMTY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMTY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>AMTY</t>
   </si>
@@ -6397,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -6405,8 +6405,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>10</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>10</v>
